--- a/src/Results.xlsx
+++ b/src/Results.xlsx
@@ -9,12 +9,13 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="11820" yWindow="2760" windowWidth="28800" windowHeight="17600" tabRatio="500" activeTab="2"/>
+    <workbookView xWindow="6920" yWindow="7320" windowWidth="28800" windowHeight="17600" tabRatio="500" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Trial_1_bloopers" sheetId="2" r:id="rId1"/>
     <sheet name="Trial_2" sheetId="3" r:id="rId2"/>
-    <sheet name="Sheet4" sheetId="4" r:id="rId3"/>
+    <sheet name="Trial_3" sheetId="5" r:id="rId3"/>
+    <sheet name="Sheet4" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="150000" concurrentCalc="0"/>
   <extLst>
@@ -29,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="196" uniqueCount="25">
   <si>
     <t>Map of obstacles:</t>
   </si>
@@ -98,6 +99,12 @@
   </si>
   <si>
     <t>Distance to Position: 120</t>
+  </si>
+  <si>
+    <t>Distance to Parking: 70</t>
+  </si>
+  <si>
+    <t>Distance to Position: 70</t>
   </si>
 </sst>
 </file>
@@ -2656,11 +2663,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="-1528706608"/>
-        <c:axId val="-1528404064"/>
+        <c:axId val="617293008"/>
+        <c:axId val="617295056"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="-1528706608"/>
+        <c:axId val="617293008"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2716,12 +2723,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1528404064"/>
+        <c:crossAx val="617295056"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="-1528404064"/>
+        <c:axId val="617295056"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2777,7 +2784,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1528706608"/>
+        <c:crossAx val="617293008"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -18893,9 +18900,5363 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C721"/>
+  <sheetViews>
+    <sheetView tabSelected="1" showRuler="0" workbookViewId="0">
+      <selection activeCell="K10" sqref="K10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3">
+        <v>134.73599999999999</v>
+      </c>
+      <c r="B3">
+        <v>29.201599999999999</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A4">
+        <v>69.6203</v>
+      </c>
+      <c r="B4">
+        <v>27.980799999999999</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A5">
+        <v>100.702</v>
+      </c>
+      <c r="B5">
+        <v>74.723500000000001</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A6">
+        <v>162.12700000000001</v>
+      </c>
+      <c r="B6">
+        <v>71.372299999999996</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A9">
+        <v>122.36799999999999</v>
+      </c>
+      <c r="B9">
+        <v>20.3947</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A10">
+        <v>122.36799999999999</v>
+      </c>
+      <c r="B10">
+        <v>27.192900000000002</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A11">
+        <v>122.36799999999999</v>
+      </c>
+      <c r="B11">
+        <v>33.991199999999999</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A12">
+        <v>122.36799999999999</v>
+      </c>
+      <c r="B12">
+        <v>40.789400000000001</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A13">
+        <v>129.166</v>
+      </c>
+      <c r="B13">
+        <v>20.3947</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A14">
+        <v>129.166</v>
+      </c>
+      <c r="B14">
+        <v>27.192900000000002</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A15">
+        <v>129.166</v>
+      </c>
+      <c r="B15">
+        <v>33.991199999999999</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A16">
+        <v>129.166</v>
+      </c>
+      <c r="B16">
+        <v>40.789400000000001</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A17">
+        <v>135.965</v>
+      </c>
+      <c r="B17">
+        <v>20.3947</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A18">
+        <v>135.965</v>
+      </c>
+      <c r="B18">
+        <v>27.192900000000002</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A19">
+        <v>135.965</v>
+      </c>
+      <c r="B19">
+        <v>33.991199999999999</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A20">
+        <v>135.965</v>
+      </c>
+      <c r="B20">
+        <v>40.789400000000001</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A21">
+        <v>142.76300000000001</v>
+      </c>
+      <c r="B21">
+        <v>20.3947</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A22">
+        <v>142.76300000000001</v>
+      </c>
+      <c r="B22">
+        <v>27.192900000000002</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A23">
+        <v>142.76300000000001</v>
+      </c>
+      <c r="B23">
+        <v>33.991199999999999</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A24">
+        <v>142.76300000000001</v>
+      </c>
+      <c r="B24">
+        <v>40.789400000000001</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A25">
+        <v>61.184100000000001</v>
+      </c>
+      <c r="B25">
+        <v>20.3947</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A26">
+        <v>61.184100000000001</v>
+      </c>
+      <c r="B26">
+        <v>27.192900000000002</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A27">
+        <v>61.184100000000001</v>
+      </c>
+      <c r="B27">
+        <v>33.991199999999999</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A28">
+        <v>67.982399999999998</v>
+      </c>
+      <c r="B28">
+        <v>20.3947</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A29">
+        <v>67.982399999999998</v>
+      </c>
+      <c r="B29">
+        <v>27.192900000000002</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A30">
+        <v>67.982399999999998</v>
+      </c>
+      <c r="B30">
+        <v>33.991199999999999</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A31">
+        <v>74.780600000000007</v>
+      </c>
+      <c r="B31">
+        <v>20.3947</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A32">
+        <v>74.780600000000007</v>
+      </c>
+      <c r="B32">
+        <v>27.192900000000002</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A33">
+        <v>74.780600000000007</v>
+      </c>
+      <c r="B33">
+        <v>33.991199999999999</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A34">
+        <v>81.578800000000001</v>
+      </c>
+      <c r="B34">
+        <v>20.3947</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A35">
+        <v>81.578800000000001</v>
+      </c>
+      <c r="B35">
+        <v>27.192900000000002</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A36">
+        <v>81.578800000000001</v>
+      </c>
+      <c r="B36">
+        <v>33.991199999999999</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A37">
+        <v>88.377099999999999</v>
+      </c>
+      <c r="B37">
+        <v>67.982399999999998</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A38">
+        <v>88.377099999999999</v>
+      </c>
+      <c r="B38">
+        <v>74.780600000000007</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A39">
+        <v>88.377099999999999</v>
+      </c>
+      <c r="B39">
+        <v>81.578800000000001</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A40">
+        <v>95.175299999999993</v>
+      </c>
+      <c r="B40">
+        <v>67.982399999999998</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A41">
+        <v>95.175299999999993</v>
+      </c>
+      <c r="B41">
+        <v>74.780600000000007</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A42">
+        <v>95.175299999999993</v>
+      </c>
+      <c r="B42">
+        <v>81.578800000000001</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A43">
+        <v>101.974</v>
+      </c>
+      <c r="B43">
+        <v>67.982399999999998</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A44">
+        <v>101.974</v>
+      </c>
+      <c r="B44">
+        <v>74.780600000000007</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A45">
+        <v>101.974</v>
+      </c>
+      <c r="B45">
+        <v>81.578800000000001</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A46">
+        <v>108.77200000000001</v>
+      </c>
+      <c r="B46">
+        <v>67.982399999999998</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A47">
+        <v>108.77200000000001</v>
+      </c>
+      <c r="B47">
+        <v>74.780600000000007</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A48">
+        <v>108.77200000000001</v>
+      </c>
+      <c r="B48">
+        <v>81.578800000000001</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A49">
+        <v>156.35900000000001</v>
+      </c>
+      <c r="B49">
+        <v>61.184100000000001</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A50">
+        <v>156.35900000000001</v>
+      </c>
+      <c r="B50">
+        <v>67.982399999999998</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A51">
+        <v>156.35900000000001</v>
+      </c>
+      <c r="B51">
+        <v>74.780600000000007</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A52">
+        <v>156.35900000000001</v>
+      </c>
+      <c r="B52">
+        <v>81.578800000000001</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A53">
+        <v>163.15799999999999</v>
+      </c>
+      <c r="B53">
+        <v>61.184100000000001</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A54">
+        <v>163.15799999999999</v>
+      </c>
+      <c r="B54">
+        <v>67.982399999999998</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A55">
+        <v>163.15799999999999</v>
+      </c>
+      <c r="B55">
+        <v>74.780600000000007</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A56">
+        <v>163.15799999999999</v>
+      </c>
+      <c r="B56">
+        <v>81.578800000000001</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A57">
+        <v>169.95599999999999</v>
+      </c>
+      <c r="B57">
+        <v>61.184100000000001</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A58">
+        <v>169.95599999999999</v>
+      </c>
+      <c r="B58">
+        <v>67.982399999999998</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A59">
+        <v>169.95599999999999</v>
+      </c>
+      <c r="B59">
+        <v>74.780600000000007</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A60">
+        <v>169.95599999999999</v>
+      </c>
+      <c r="B60">
+        <v>81.578800000000001</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A62" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A63">
+        <v>54.385899999999999</v>
+      </c>
+      <c r="B63">
+        <v>33.991199999999999</v>
+      </c>
+      <c r="C63">
+        <v>6.3401800000000001</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A64">
+        <v>61.184100000000001</v>
+      </c>
+      <c r="B64">
+        <v>40.789400000000001</v>
+      </c>
+      <c r="C64">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A65">
+        <v>81.578800000000001</v>
+      </c>
+      <c r="B65">
+        <v>40.789400000000001</v>
+      </c>
+      <c r="C65">
+        <v>-45</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A66">
+        <v>88.377099999999999</v>
+      </c>
+      <c r="B66">
+        <v>33.991199999999999</v>
+      </c>
+      <c r="C66">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A67">
+        <v>108.77200000000001</v>
+      </c>
+      <c r="B67">
+        <v>33.991199999999999</v>
+      </c>
+      <c r="C67">
+        <v>-45</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A68">
+        <v>115.57</v>
+      </c>
+      <c r="B68">
+        <v>27.192900000000002</v>
+      </c>
+      <c r="C68">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A70" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A71">
+        <v>0</v>
+      </c>
+      <c r="B71">
+        <v>33.991199999999999</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A72">
+        <v>6.7982399999999998</v>
+      </c>
+      <c r="B72">
+        <v>33.991199999999999</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A73">
+        <v>13.596500000000001</v>
+      </c>
+      <c r="B73">
+        <v>33.991199999999999</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A74">
+        <v>20.3947</v>
+      </c>
+      <c r="B74">
+        <v>33.991199999999999</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A75">
+        <v>27.192900000000002</v>
+      </c>
+      <c r="B75">
+        <v>33.991199999999999</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A76">
+        <v>33.991199999999999</v>
+      </c>
+      <c r="B76">
+        <v>33.991199999999999</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A77">
+        <v>40.789400000000001</v>
+      </c>
+      <c r="B77">
+        <v>33.991199999999999</v>
+      </c>
+    </row>
+    <row r="78" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A78">
+        <v>47.587699999999998</v>
+      </c>
+      <c r="B78">
+        <v>33.991199999999999</v>
+      </c>
+    </row>
+    <row r="79" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A79">
+        <v>54.385899999999999</v>
+      </c>
+      <c r="B79">
+        <v>33.991199999999999</v>
+      </c>
+    </row>
+    <row r="80" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A80">
+        <v>61.184100000000001</v>
+      </c>
+      <c r="B80">
+        <v>40.789400000000001</v>
+      </c>
+    </row>
+    <row r="81" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A81">
+        <v>67.982399999999998</v>
+      </c>
+      <c r="B81">
+        <v>40.789400000000001</v>
+      </c>
+    </row>
+    <row r="82" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A82">
+        <v>74.780600000000007</v>
+      </c>
+      <c r="B82">
+        <v>40.789400000000001</v>
+      </c>
+    </row>
+    <row r="83" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A83">
+        <v>81.578800000000001</v>
+      </c>
+      <c r="B83">
+        <v>40.789400000000001</v>
+      </c>
+    </row>
+    <row r="84" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A84">
+        <v>88.377099999999999</v>
+      </c>
+      <c r="B84">
+        <v>33.991199999999999</v>
+      </c>
+    </row>
+    <row r="85" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A85">
+        <v>95.175299999999993</v>
+      </c>
+      <c r="B85">
+        <v>33.991199999999999</v>
+      </c>
+    </row>
+    <row r="86" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A86">
+        <v>101.974</v>
+      </c>
+      <c r="B86">
+        <v>33.991199999999999</v>
+      </c>
+    </row>
+    <row r="87" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A87">
+        <v>108.77200000000001</v>
+      </c>
+      <c r="B87">
+        <v>33.991199999999999</v>
+      </c>
+    </row>
+    <row r="88" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A88">
+        <v>115.57</v>
+      </c>
+      <c r="B88">
+        <v>27.192900000000002</v>
+      </c>
+    </row>
+    <row r="90" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A90" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="91" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A91">
+        <v>57.389000000000003</v>
+      </c>
+      <c r="B91">
+        <v>34.902000000000001</v>
+      </c>
+    </row>
+    <row r="92" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A92">
+        <v>60.2273</v>
+      </c>
+      <c r="B92">
+        <v>36.613500000000002</v>
+      </c>
+    </row>
+    <row r="93" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A93">
+        <v>62.2438</v>
+      </c>
+      <c r="B93">
+        <v>38.549300000000002</v>
+      </c>
+    </row>
+    <row r="94" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A94">
+        <v>62.781700000000001</v>
+      </c>
+      <c r="B94">
+        <v>40.133400000000002</v>
+      </c>
+    </row>
+    <row r="95" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A95">
+        <v>61.184100000000001</v>
+      </c>
+      <c r="B95">
+        <v>40.789400000000001</v>
+      </c>
+    </row>
+    <row r="96" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A96">
+        <v>58.697200000000002</v>
+      </c>
+      <c r="B96">
+        <v>41.4816</v>
+      </c>
+    </row>
+    <row r="97" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A97">
+        <v>61.881100000000004</v>
+      </c>
+      <c r="B97">
+        <v>42.866100000000003</v>
+      </c>
+    </row>
+    <row r="98" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A98">
+        <v>68.348100000000002</v>
+      </c>
+      <c r="B98">
+        <v>43.904400000000003</v>
+      </c>
+    </row>
+    <row r="99" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A99">
+        <v>75.709999999999994</v>
+      </c>
+      <c r="B99">
+        <v>43.558300000000003</v>
+      </c>
+    </row>
+    <row r="100" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A100">
+        <v>81.578800000000001</v>
+      </c>
+      <c r="B100">
+        <v>40.789400000000001</v>
+      </c>
+    </row>
+    <row r="101" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A101">
+        <v>84.052599999999998</v>
+      </c>
+      <c r="B101">
+        <v>38.777099999999997</v>
+      </c>
+    </row>
+    <row r="102" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A102">
+        <v>86.824700000000007</v>
+      </c>
+      <c r="B102">
+        <v>36.927999999999997</v>
+      </c>
+    </row>
+    <row r="103" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A103">
+        <v>89.039699999999996</v>
+      </c>
+      <c r="B103">
+        <v>35.405200000000001</v>
+      </c>
+    </row>
+    <row r="104" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A104">
+        <v>89.842299999999994</v>
+      </c>
+      <c r="B104">
+        <v>34.371899999999997</v>
+      </c>
+    </row>
+    <row r="105" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A105">
+        <v>88.377099999999999</v>
+      </c>
+      <c r="B105">
+        <v>33.991199999999999</v>
+      </c>
+    </row>
+    <row r="106" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A106">
+        <v>85.890100000000004</v>
+      </c>
+      <c r="B106">
+        <v>34.683399999999999</v>
+      </c>
+    </row>
+    <row r="107" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A107">
+        <v>89.074100000000001</v>
+      </c>
+      <c r="B107">
+        <v>36.067799999999998</v>
+      </c>
+    </row>
+    <row r="108" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A108">
+        <v>95.540999999999997</v>
+      </c>
+      <c r="B108">
+        <v>37.106200000000001</v>
+      </c>
+    </row>
+    <row r="109" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A109">
+        <v>102.90300000000001</v>
+      </c>
+      <c r="B109">
+        <v>36.760100000000001</v>
+      </c>
+    </row>
+    <row r="110" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A110">
+        <v>108.77200000000001</v>
+      </c>
+      <c r="B110">
+        <v>33.991199999999999</v>
+      </c>
+    </row>
+    <row r="111" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A111">
+        <v>110.32299999999999</v>
+      </c>
+      <c r="B111">
+        <v>31.978899999999999</v>
+      </c>
+    </row>
+    <row r="112" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A112">
+        <v>111.249</v>
+      </c>
+      <c r="B112">
+        <v>30.129799999999999</v>
+      </c>
+    </row>
+    <row r="113" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A113">
+        <v>112.07899999999999</v>
+      </c>
+      <c r="B113">
+        <v>28.606999999999999</v>
+      </c>
+    </row>
+    <row r="114" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A114">
+        <v>113.343</v>
+      </c>
+      <c r="B114">
+        <v>27.573599999999999</v>
+      </c>
+    </row>
+    <row r="115" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A115">
+        <v>115.57</v>
+      </c>
+      <c r="B115">
+        <v>27.192900000000002</v>
+      </c>
+    </row>
+    <row r="117" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A117" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="119" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A119" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="120" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A120">
+        <v>137.096</v>
+      </c>
+      <c r="B120">
+        <v>29.201599999999999</v>
+      </c>
+    </row>
+    <row r="121" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A121">
+        <v>149.416</v>
+      </c>
+      <c r="B121">
+        <v>29.201599999999999</v>
+      </c>
+    </row>
+    <row r="122" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A122">
+        <v>160.05600000000001</v>
+      </c>
+      <c r="B122">
+        <v>29.201599999999999</v>
+      </c>
+    </row>
+    <row r="123" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A123">
+        <v>172.376</v>
+      </c>
+      <c r="B123">
+        <v>29.201599999999999</v>
+      </c>
+    </row>
+    <row r="124" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A124">
+        <v>189.73599999999999</v>
+      </c>
+      <c r="B124">
+        <v>29.201599999999999</v>
+      </c>
+    </row>
+    <row r="125" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A125" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="126" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A126" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="127" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A127" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="128" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A128" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="129" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A129">
+        <v>69.516900000000007</v>
+      </c>
+      <c r="B129">
+        <v>27.710599999999999</v>
+      </c>
+    </row>
+    <row r="130" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A130">
+        <v>204.98099999999999</v>
+      </c>
+      <c r="B130">
+        <v>31.139299999999999</v>
+      </c>
+    </row>
+    <row r="131" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A131">
+        <v>100.702</v>
+      </c>
+      <c r="B131">
+        <v>74.723500000000001</v>
+      </c>
+    </row>
+    <row r="132" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A132">
+        <v>162.07900000000001</v>
+      </c>
+      <c r="B132">
+        <v>71.443600000000004</v>
+      </c>
+    </row>
+    <row r="134" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A134" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="135" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A135">
+        <v>61.184100000000001</v>
+      </c>
+      <c r="B135">
+        <v>20.3947</v>
+      </c>
+    </row>
+    <row r="136" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A136">
+        <v>61.184100000000001</v>
+      </c>
+      <c r="B136">
+        <v>27.192900000000002</v>
+      </c>
+    </row>
+    <row r="137" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A137">
+        <v>61.184100000000001</v>
+      </c>
+      <c r="B137">
+        <v>33.991199999999999</v>
+      </c>
+    </row>
+    <row r="138" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A138">
+        <v>67.982399999999998</v>
+      </c>
+      <c r="B138">
+        <v>20.3947</v>
+      </c>
+    </row>
+    <row r="139" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A139">
+        <v>67.982399999999998</v>
+      </c>
+      <c r="B139">
+        <v>27.192900000000002</v>
+      </c>
+    </row>
+    <row r="140" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A140">
+        <v>67.982399999999998</v>
+      </c>
+      <c r="B140">
+        <v>33.991199999999999</v>
+      </c>
+    </row>
+    <row r="141" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A141">
+        <v>74.780600000000007</v>
+      </c>
+      <c r="B141">
+        <v>20.3947</v>
+      </c>
+    </row>
+    <row r="142" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A142">
+        <v>74.780600000000007</v>
+      </c>
+      <c r="B142">
+        <v>27.192900000000002</v>
+      </c>
+    </row>
+    <row r="143" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A143">
+        <v>74.780600000000007</v>
+      </c>
+      <c r="B143">
+        <v>33.991199999999999</v>
+      </c>
+    </row>
+    <row r="144" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A144">
+        <v>81.578800000000001</v>
+      </c>
+      <c r="B144">
+        <v>20.3947</v>
+      </c>
+    </row>
+    <row r="145" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A145">
+        <v>81.578800000000001</v>
+      </c>
+      <c r="B145">
+        <v>27.192900000000002</v>
+      </c>
+    </row>
+    <row r="146" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A146">
+        <v>81.578800000000001</v>
+      </c>
+      <c r="B146">
+        <v>33.991199999999999</v>
+      </c>
+    </row>
+    <row r="147" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A147">
+        <v>197.149</v>
+      </c>
+      <c r="B147">
+        <v>20.3947</v>
+      </c>
+    </row>
+    <row r="148" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A148">
+        <v>197.149</v>
+      </c>
+      <c r="B148">
+        <v>27.192900000000002</v>
+      </c>
+    </row>
+    <row r="149" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A149">
+        <v>197.149</v>
+      </c>
+      <c r="B149">
+        <v>33.991199999999999</v>
+      </c>
+    </row>
+    <row r="150" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A150">
+        <v>197.149</v>
+      </c>
+      <c r="B150">
+        <v>40.789400000000001</v>
+      </c>
+    </row>
+    <row r="151" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A151">
+        <v>203.947</v>
+      </c>
+      <c r="B151">
+        <v>20.3947</v>
+      </c>
+    </row>
+    <row r="152" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A152">
+        <v>203.947</v>
+      </c>
+      <c r="B152">
+        <v>27.192900000000002</v>
+      </c>
+    </row>
+    <row r="153" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A153">
+        <v>203.947</v>
+      </c>
+      <c r="B153">
+        <v>33.991199999999999</v>
+      </c>
+    </row>
+    <row r="154" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A154">
+        <v>203.947</v>
+      </c>
+      <c r="B154">
+        <v>40.789400000000001</v>
+      </c>
+    </row>
+    <row r="155" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A155">
+        <v>210.745</v>
+      </c>
+      <c r="B155">
+        <v>20.3947</v>
+      </c>
+    </row>
+    <row r="156" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A156">
+        <v>210.745</v>
+      </c>
+      <c r="B156">
+        <v>27.192900000000002</v>
+      </c>
+    </row>
+    <row r="157" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A157">
+        <v>210.745</v>
+      </c>
+      <c r="B157">
+        <v>33.991199999999999</v>
+      </c>
+    </row>
+    <row r="158" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A158">
+        <v>210.745</v>
+      </c>
+      <c r="B158">
+        <v>40.789400000000001</v>
+      </c>
+    </row>
+    <row r="159" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A159">
+        <v>88.377099999999999</v>
+      </c>
+      <c r="B159">
+        <v>67.982399999999998</v>
+      </c>
+    </row>
+    <row r="160" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A160">
+        <v>88.377099999999999</v>
+      </c>
+      <c r="B160">
+        <v>74.780600000000007</v>
+      </c>
+    </row>
+    <row r="161" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A161">
+        <v>88.377099999999999</v>
+      </c>
+      <c r="B161">
+        <v>81.578800000000001</v>
+      </c>
+    </row>
+    <row r="162" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A162">
+        <v>95.175299999999993</v>
+      </c>
+      <c r="B162">
+        <v>67.982399999999998</v>
+      </c>
+    </row>
+    <row r="163" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A163">
+        <v>95.175299999999993</v>
+      </c>
+      <c r="B163">
+        <v>74.780600000000007</v>
+      </c>
+    </row>
+    <row r="164" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A164">
+        <v>95.175299999999993</v>
+      </c>
+      <c r="B164">
+        <v>81.578800000000001</v>
+      </c>
+    </row>
+    <row r="165" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A165">
+        <v>101.974</v>
+      </c>
+      <c r="B165">
+        <v>67.982399999999998</v>
+      </c>
+    </row>
+    <row r="166" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A166">
+        <v>101.974</v>
+      </c>
+      <c r="B166">
+        <v>74.780600000000007</v>
+      </c>
+    </row>
+    <row r="167" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A167">
+        <v>101.974</v>
+      </c>
+      <c r="B167">
+        <v>81.578800000000001</v>
+      </c>
+    </row>
+    <row r="168" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A168">
+        <v>108.77200000000001</v>
+      </c>
+      <c r="B168">
+        <v>67.982399999999998</v>
+      </c>
+    </row>
+    <row r="169" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A169">
+        <v>108.77200000000001</v>
+      </c>
+      <c r="B169">
+        <v>74.780600000000007</v>
+      </c>
+    </row>
+    <row r="170" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A170">
+        <v>108.77200000000001</v>
+      </c>
+      <c r="B170">
+        <v>81.578800000000001</v>
+      </c>
+    </row>
+    <row r="171" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A171">
+        <v>156.35900000000001</v>
+      </c>
+      <c r="B171">
+        <v>61.184100000000001</v>
+      </c>
+    </row>
+    <row r="172" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A172">
+        <v>156.35900000000001</v>
+      </c>
+      <c r="B172">
+        <v>67.982399999999998</v>
+      </c>
+    </row>
+    <row r="173" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A173">
+        <v>156.35900000000001</v>
+      </c>
+      <c r="B173">
+        <v>74.780600000000007</v>
+      </c>
+    </row>
+    <row r="174" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A174">
+        <v>156.35900000000001</v>
+      </c>
+      <c r="B174">
+        <v>81.578800000000001</v>
+      </c>
+    </row>
+    <row r="175" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A175">
+        <v>163.15799999999999</v>
+      </c>
+      <c r="B175">
+        <v>61.184100000000001</v>
+      </c>
+    </row>
+    <row r="176" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A176">
+        <v>163.15799999999999</v>
+      </c>
+      <c r="B176">
+        <v>67.982399999999998</v>
+      </c>
+    </row>
+    <row r="177" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A177">
+        <v>163.15799999999999</v>
+      </c>
+      <c r="B177">
+        <v>74.780600000000007</v>
+      </c>
+    </row>
+    <row r="178" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A178">
+        <v>163.15799999999999</v>
+      </c>
+      <c r="B178">
+        <v>81.578800000000001</v>
+      </c>
+    </row>
+    <row r="179" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A179">
+        <v>169.95599999999999</v>
+      </c>
+      <c r="B179">
+        <v>61.184100000000001</v>
+      </c>
+    </row>
+    <row r="180" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A180">
+        <v>169.95599999999999</v>
+      </c>
+      <c r="B180">
+        <v>67.982399999999998</v>
+      </c>
+    </row>
+    <row r="181" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A181">
+        <v>169.95599999999999</v>
+      </c>
+      <c r="B181">
+        <v>74.780600000000007</v>
+      </c>
+    </row>
+    <row r="182" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A182">
+        <v>169.95599999999999</v>
+      </c>
+      <c r="B182">
+        <v>81.578800000000001</v>
+      </c>
+    </row>
+    <row r="184" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A184" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="185" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A185">
+        <v>0</v>
+      </c>
+      <c r="B185">
+        <v>74.780600000000007</v>
+      </c>
+    </row>
+    <row r="186" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A186">
+        <v>6.7982399999999998</v>
+      </c>
+      <c r="B186">
+        <v>67.982399999999998</v>
+      </c>
+    </row>
+    <row r="187" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A187">
+        <v>13.596500000000001</v>
+      </c>
+      <c r="B187">
+        <v>61.184100000000001</v>
+      </c>
+    </row>
+    <row r="188" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A188">
+        <v>20.3947</v>
+      </c>
+      <c r="B188">
+        <v>54.385899999999999</v>
+      </c>
+    </row>
+    <row r="189" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A189">
+        <v>27.192900000000002</v>
+      </c>
+      <c r="B189">
+        <v>47.587600000000002</v>
+      </c>
+    </row>
+    <row r="190" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A190">
+        <v>33.991199999999999</v>
+      </c>
+      <c r="B190">
+        <v>40.789400000000001</v>
+      </c>
+    </row>
+    <row r="191" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A191">
+        <v>40.789400000000001</v>
+      </c>
+      <c r="B191">
+        <v>33.991199999999999</v>
+      </c>
+    </row>
+    <row r="192" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A192">
+        <v>47.587699999999998</v>
+      </c>
+      <c r="B192">
+        <v>27.192900000000002</v>
+      </c>
+    </row>
+    <row r="194" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A194" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="195" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A195">
+        <v>0</v>
+      </c>
+      <c r="B195">
+        <v>74.780600000000007</v>
+      </c>
+      <c r="C195">
+        <v>9.0085099999999994</v>
+      </c>
+    </row>
+    <row r="196" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A196">
+        <v>6.7982399999999998</v>
+      </c>
+      <c r="B196">
+        <v>67.982399999999998</v>
+      </c>
+      <c r="C196">
+        <v>-45</v>
+      </c>
+    </row>
+    <row r="197" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A197">
+        <v>13.596500000000001</v>
+      </c>
+      <c r="B197">
+        <v>61.184100000000001</v>
+      </c>
+      <c r="C197">
+        <v>-45</v>
+      </c>
+    </row>
+    <row r="198" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A198">
+        <v>20.3947</v>
+      </c>
+      <c r="B198">
+        <v>54.385899999999999</v>
+      </c>
+      <c r="C198">
+        <v>-45</v>
+      </c>
+    </row>
+    <row r="199" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A199">
+        <v>33.991199999999999</v>
+      </c>
+      <c r="B199">
+        <v>40.789400000000001</v>
+      </c>
+      <c r="C199">
+        <v>-45</v>
+      </c>
+    </row>
+    <row r="200" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A200">
+        <v>40.789400000000001</v>
+      </c>
+      <c r="B200">
+        <v>33.991199999999999</v>
+      </c>
+      <c r="C200">
+        <v>-45</v>
+      </c>
+    </row>
+    <row r="201" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A201">
+        <v>47.587699999999998</v>
+      </c>
+      <c r="B201">
+        <v>27.192900000000002</v>
+      </c>
+      <c r="C201">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="203" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A203" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="204" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A204">
+        <v>2.2038500000000001</v>
+      </c>
+      <c r="B204">
+        <v>74.688900000000004</v>
+      </c>
+    </row>
+    <row r="205" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A205">
+        <v>3.4650799999999999</v>
+      </c>
+      <c r="B205">
+        <v>73.691699999999997</v>
+      </c>
+    </row>
+    <row r="206" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A206">
+        <v>4.3041999999999998</v>
+      </c>
+      <c r="B206">
+        <v>72.060500000000005</v>
+      </c>
+    </row>
+    <row r="207" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A207">
+        <v>5.2417400000000001</v>
+      </c>
+      <c r="B207">
+        <v>70.066900000000004</v>
+      </c>
+    </row>
+    <row r="208" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A208">
+        <v>6.7982399999999998</v>
+      </c>
+      <c r="B208">
+        <v>67.982399999999998</v>
+      </c>
+    </row>
+    <row r="209" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A209">
+        <v>8.4841999999999995</v>
+      </c>
+      <c r="B209">
+        <v>66.296400000000006</v>
+      </c>
+    </row>
+    <row r="210" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A210">
+        <v>9.6806900000000002</v>
+      </c>
+      <c r="B210">
+        <v>65.099900000000005</v>
+      </c>
+    </row>
+    <row r="211" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A211">
+        <v>10.714</v>
+      </c>
+      <c r="B211">
+        <v>64.066599999999994</v>
+      </c>
+    </row>
+    <row r="212" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A212">
+        <v>11.910500000000001</v>
+      </c>
+      <c r="B212">
+        <v>62.870100000000001</v>
+      </c>
+    </row>
+    <row r="213" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A213">
+        <v>13.596500000000001</v>
+      </c>
+      <c r="B213">
+        <v>61.184100000000001</v>
+      </c>
+    </row>
+    <row r="214" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A214">
+        <v>15.282400000000001</v>
+      </c>
+      <c r="B214">
+        <v>59.498199999999997</v>
+      </c>
+    </row>
+    <row r="215" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A215">
+        <v>16.478899999999999</v>
+      </c>
+      <c r="B215">
+        <v>58.301699999999997</v>
+      </c>
+    </row>
+    <row r="216" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A216">
+        <v>17.5123</v>
+      </c>
+      <c r="B216">
+        <v>57.268300000000004</v>
+      </c>
+    </row>
+    <row r="217" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A217">
+        <v>18.7087</v>
+      </c>
+      <c r="B217">
+        <v>56.071800000000003</v>
+      </c>
+    </row>
+    <row r="218" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A218">
+        <v>20.3947</v>
+      </c>
+      <c r="B218">
+        <v>54.385899999999999</v>
+      </c>
+    </row>
+    <row r="219" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A219">
+        <v>23.7666</v>
+      </c>
+      <c r="B219">
+        <v>51.014000000000003</v>
+      </c>
+    </row>
+    <row r="220" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A220">
+        <v>26.159600000000001</v>
+      </c>
+      <c r="B220">
+        <v>48.621000000000002</v>
+      </c>
+    </row>
+    <row r="221" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A221">
+        <v>28.226299999999998</v>
+      </c>
+      <c r="B221">
+        <v>46.554299999999998</v>
+      </c>
+    </row>
+    <row r="222" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A222">
+        <v>30.619299999999999</v>
+      </c>
+      <c r="B222">
+        <v>44.161299999999997</v>
+      </c>
+    </row>
+    <row r="223" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A223">
+        <v>33.991199999999999</v>
+      </c>
+      <c r="B223">
+        <v>40.789400000000001</v>
+      </c>
+    </row>
+    <row r="224" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A224">
+        <v>35.677100000000003</v>
+      </c>
+      <c r="B224">
+        <v>39.103400000000001</v>
+      </c>
+    </row>
+    <row r="225" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A225">
+        <v>36.873600000000003</v>
+      </c>
+      <c r="B225">
+        <v>37.906999999999996</v>
+      </c>
+    </row>
+    <row r="226" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A226">
+        <v>37.906999999999996</v>
+      </c>
+      <c r="B226">
+        <v>36.873600000000003</v>
+      </c>
+    </row>
+    <row r="227" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A227">
+        <v>39.103499999999997</v>
+      </c>
+      <c r="B227">
+        <v>35.677100000000003</v>
+      </c>
+    </row>
+    <row r="228" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A228">
+        <v>40.789400000000001</v>
+      </c>
+      <c r="B228">
+        <v>33.991199999999999</v>
+      </c>
+    </row>
+    <row r="229" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A229">
+        <v>42.340200000000003</v>
+      </c>
+      <c r="B229">
+        <v>31.978899999999999</v>
+      </c>
+    </row>
+    <row r="230" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A230">
+        <v>43.266399999999997</v>
+      </c>
+      <c r="B230">
+        <v>30.129799999999999</v>
+      </c>
+    </row>
+    <row r="231" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A231">
+        <v>44.097000000000001</v>
+      </c>
+      <c r="B231">
+        <v>28.606999999999999</v>
+      </c>
+    </row>
+    <row r="232" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A232">
+        <v>45.360999999999997</v>
+      </c>
+      <c r="B232">
+        <v>27.573599999999999</v>
+      </c>
+    </row>
+    <row r="233" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A233">
+        <v>47.587699999999998</v>
+      </c>
+      <c r="B233">
+        <v>27.192900000000002</v>
+      </c>
+    </row>
+    <row r="235" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A235" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="237" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A237" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="238" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A238">
+        <v>71.876900000000006</v>
+      </c>
+      <c r="B238">
+        <v>27.710599999999999</v>
+      </c>
+    </row>
+    <row r="239" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A239">
+        <v>84.196899999999999</v>
+      </c>
+      <c r="B239">
+        <v>27.710599999999999</v>
+      </c>
+    </row>
+    <row r="240" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A240">
+        <v>94.8369</v>
+      </c>
+      <c r="B240">
+        <v>27.710599999999999</v>
+      </c>
+    </row>
+    <row r="241" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A241">
+        <v>107.157</v>
+      </c>
+      <c r="B241">
+        <v>27.710599999999999</v>
+      </c>
+    </row>
+    <row r="242" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A242">
+        <v>124.517</v>
+      </c>
+      <c r="B242">
+        <v>27.710599999999999</v>
+      </c>
+    </row>
+    <row r="243" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A243" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="244" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A244" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="245" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A245" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="246" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A246" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="247" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A247">
+        <v>139.22800000000001</v>
+      </c>
+      <c r="B247">
+        <v>28.373100000000001</v>
+      </c>
+    </row>
+    <row r="248" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A248">
+        <v>205.233</v>
+      </c>
+      <c r="B248">
+        <v>31.2879</v>
+      </c>
+    </row>
+    <row r="249" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A249">
+        <v>100.76</v>
+      </c>
+      <c r="B249">
+        <v>74.650800000000004</v>
+      </c>
+    </row>
+    <row r="250" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A250">
+        <v>162.137</v>
+      </c>
+      <c r="B250">
+        <v>71.437899999999999</v>
+      </c>
+    </row>
+    <row r="252" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A252" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="253" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A253">
+        <v>129.166</v>
+      </c>
+      <c r="B253">
+        <v>20.3947</v>
+      </c>
+    </row>
+    <row r="254" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A254">
+        <v>129.166</v>
+      </c>
+      <c r="B254">
+        <v>27.192900000000002</v>
+      </c>
+    </row>
+    <row r="255" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A255">
+        <v>129.166</v>
+      </c>
+      <c r="B255">
+        <v>33.991199999999999</v>
+      </c>
+    </row>
+    <row r="256" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A256">
+        <v>129.166</v>
+      </c>
+      <c r="B256">
+        <v>40.789400000000001</v>
+      </c>
+    </row>
+    <row r="257" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A257">
+        <v>135.965</v>
+      </c>
+      <c r="B257">
+        <v>20.3947</v>
+      </c>
+    </row>
+    <row r="258" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A258">
+        <v>135.965</v>
+      </c>
+      <c r="B258">
+        <v>27.192900000000002</v>
+      </c>
+    </row>
+    <row r="259" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A259">
+        <v>135.965</v>
+      </c>
+      <c r="B259">
+        <v>33.991199999999999</v>
+      </c>
+    </row>
+    <row r="260" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A260">
+        <v>135.965</v>
+      </c>
+      <c r="B260">
+        <v>40.789400000000001</v>
+      </c>
+    </row>
+    <row r="261" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A261">
+        <v>142.76300000000001</v>
+      </c>
+      <c r="B261">
+        <v>20.3947</v>
+      </c>
+    </row>
+    <row r="262" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A262">
+        <v>142.76300000000001</v>
+      </c>
+      <c r="B262">
+        <v>27.192900000000002</v>
+      </c>
+    </row>
+    <row r="263" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A263">
+        <v>142.76300000000001</v>
+      </c>
+      <c r="B263">
+        <v>33.991199999999999</v>
+      </c>
+    </row>
+    <row r="264" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A264">
+        <v>142.76300000000001</v>
+      </c>
+      <c r="B264">
+        <v>40.789400000000001</v>
+      </c>
+    </row>
+    <row r="265" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A265">
+        <v>149.56100000000001</v>
+      </c>
+      <c r="B265">
+        <v>20.3947</v>
+      </c>
+    </row>
+    <row r="266" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A266">
+        <v>149.56100000000001</v>
+      </c>
+      <c r="B266">
+        <v>27.192900000000002</v>
+      </c>
+    </row>
+    <row r="267" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A267">
+        <v>149.56100000000001</v>
+      </c>
+      <c r="B267">
+        <v>33.991199999999999</v>
+      </c>
+    </row>
+    <row r="268" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A268">
+        <v>149.56100000000001</v>
+      </c>
+      <c r="B268">
+        <v>40.789400000000001</v>
+      </c>
+    </row>
+    <row r="269" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A269">
+        <v>197.149</v>
+      </c>
+      <c r="B269">
+        <v>20.3947</v>
+      </c>
+    </row>
+    <row r="270" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A270">
+        <v>197.149</v>
+      </c>
+      <c r="B270">
+        <v>27.192900000000002</v>
+      </c>
+    </row>
+    <row r="271" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A271">
+        <v>197.149</v>
+      </c>
+      <c r="B271">
+        <v>33.991199999999999</v>
+      </c>
+    </row>
+    <row r="272" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A272">
+        <v>197.149</v>
+      </c>
+      <c r="B272">
+        <v>40.789400000000001</v>
+      </c>
+    </row>
+    <row r="273" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A273">
+        <v>203.947</v>
+      </c>
+      <c r="B273">
+        <v>20.3947</v>
+      </c>
+    </row>
+    <row r="274" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A274">
+        <v>203.947</v>
+      </c>
+      <c r="B274">
+        <v>27.192900000000002</v>
+      </c>
+    </row>
+    <row r="275" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A275">
+        <v>203.947</v>
+      </c>
+      <c r="B275">
+        <v>33.991199999999999</v>
+      </c>
+    </row>
+    <row r="276" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A276">
+        <v>203.947</v>
+      </c>
+      <c r="B276">
+        <v>40.789400000000001</v>
+      </c>
+    </row>
+    <row r="277" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A277">
+        <v>210.745</v>
+      </c>
+      <c r="B277">
+        <v>20.3947</v>
+      </c>
+    </row>
+    <row r="278" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A278">
+        <v>210.745</v>
+      </c>
+      <c r="B278">
+        <v>27.192900000000002</v>
+      </c>
+    </row>
+    <row r="279" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A279">
+        <v>210.745</v>
+      </c>
+      <c r="B279">
+        <v>33.991199999999999</v>
+      </c>
+    </row>
+    <row r="280" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A280">
+        <v>210.745</v>
+      </c>
+      <c r="B280">
+        <v>40.789400000000001</v>
+      </c>
+    </row>
+    <row r="281" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A281">
+        <v>217.54400000000001</v>
+      </c>
+      <c r="B281">
+        <v>20.3947</v>
+      </c>
+    </row>
+    <row r="282" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A282">
+        <v>217.54400000000001</v>
+      </c>
+      <c r="B282">
+        <v>27.192900000000002</v>
+      </c>
+    </row>
+    <row r="283" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A283">
+        <v>217.54400000000001</v>
+      </c>
+      <c r="B283">
+        <v>33.991199999999999</v>
+      </c>
+    </row>
+    <row r="284" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A284">
+        <v>217.54400000000001</v>
+      </c>
+      <c r="B284">
+        <v>40.789400000000001</v>
+      </c>
+    </row>
+    <row r="285" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A285">
+        <v>88.377099999999999</v>
+      </c>
+      <c r="B285">
+        <v>67.982399999999998</v>
+      </c>
+    </row>
+    <row r="286" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A286">
+        <v>88.377099999999999</v>
+      </c>
+      <c r="B286">
+        <v>74.780600000000007</v>
+      </c>
+    </row>
+    <row r="287" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A287">
+        <v>88.377099999999999</v>
+      </c>
+      <c r="B287">
+        <v>81.578800000000001</v>
+      </c>
+    </row>
+    <row r="288" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A288">
+        <v>95.175299999999993</v>
+      </c>
+      <c r="B288">
+        <v>67.982399999999998</v>
+      </c>
+    </row>
+    <row r="289" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A289">
+        <v>95.175299999999993</v>
+      </c>
+      <c r="B289">
+        <v>74.780600000000007</v>
+      </c>
+    </row>
+    <row r="290" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A290">
+        <v>95.175299999999993</v>
+      </c>
+      <c r="B290">
+        <v>81.578800000000001</v>
+      </c>
+    </row>
+    <row r="291" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A291">
+        <v>101.974</v>
+      </c>
+      <c r="B291">
+        <v>67.982399999999998</v>
+      </c>
+    </row>
+    <row r="292" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A292">
+        <v>101.974</v>
+      </c>
+      <c r="B292">
+        <v>74.780600000000007</v>
+      </c>
+    </row>
+    <row r="293" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A293">
+        <v>101.974</v>
+      </c>
+      <c r="B293">
+        <v>81.578800000000001</v>
+      </c>
+    </row>
+    <row r="294" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A294">
+        <v>108.77200000000001</v>
+      </c>
+      <c r="B294">
+        <v>67.982399999999998</v>
+      </c>
+    </row>
+    <row r="295" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A295">
+        <v>108.77200000000001</v>
+      </c>
+      <c r="B295">
+        <v>74.780600000000007</v>
+      </c>
+    </row>
+    <row r="296" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A296">
+        <v>108.77200000000001</v>
+      </c>
+      <c r="B296">
+        <v>81.578800000000001</v>
+      </c>
+    </row>
+    <row r="297" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A297">
+        <v>156.35900000000001</v>
+      </c>
+      <c r="B297">
+        <v>61.184100000000001</v>
+      </c>
+    </row>
+    <row r="298" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A298">
+        <v>156.35900000000001</v>
+      </c>
+      <c r="B298">
+        <v>67.982399999999998</v>
+      </c>
+    </row>
+    <row r="299" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A299">
+        <v>156.35900000000001</v>
+      </c>
+      <c r="B299">
+        <v>74.780600000000007</v>
+      </c>
+    </row>
+    <row r="300" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A300">
+        <v>156.35900000000001</v>
+      </c>
+      <c r="B300">
+        <v>81.578800000000001</v>
+      </c>
+    </row>
+    <row r="301" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A301">
+        <v>163.15799999999999</v>
+      </c>
+      <c r="B301">
+        <v>61.184100000000001</v>
+      </c>
+    </row>
+    <row r="302" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A302">
+        <v>163.15799999999999</v>
+      </c>
+      <c r="B302">
+        <v>67.982399999999998</v>
+      </c>
+    </row>
+    <row r="303" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A303">
+        <v>163.15799999999999</v>
+      </c>
+      <c r="B303">
+        <v>74.780600000000007</v>
+      </c>
+    </row>
+    <row r="304" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A304">
+        <v>163.15799999999999</v>
+      </c>
+      <c r="B304">
+        <v>81.578800000000001</v>
+      </c>
+    </row>
+    <row r="305" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A305">
+        <v>169.95599999999999</v>
+      </c>
+      <c r="B305">
+        <v>61.184100000000001</v>
+      </c>
+    </row>
+    <row r="306" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A306">
+        <v>169.95599999999999</v>
+      </c>
+      <c r="B306">
+        <v>67.982399999999998</v>
+      </c>
+    </row>
+    <row r="307" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A307">
+        <v>169.95599999999999</v>
+      </c>
+      <c r="B307">
+        <v>74.780600000000007</v>
+      </c>
+    </row>
+    <row r="308" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A308">
+        <v>169.95599999999999</v>
+      </c>
+      <c r="B308">
+        <v>81.578800000000001</v>
+      </c>
+    </row>
+    <row r="310" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A310" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="311" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A311">
+        <v>122.36799999999999</v>
+      </c>
+      <c r="B311">
+        <v>27.192900000000002</v>
+      </c>
+      <c r="C311">
+        <v>10.864100000000001</v>
+      </c>
+    </row>
+    <row r="312" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A312">
+        <v>122.36799999999999</v>
+      </c>
+      <c r="B312">
+        <v>20.3947</v>
+      </c>
+      <c r="C312">
+        <v>-45</v>
+      </c>
+    </row>
+    <row r="313" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A313">
+        <v>129.166</v>
+      </c>
+      <c r="B313">
+        <v>13.596500000000001</v>
+      </c>
+      <c r="C313">
+        <v>-45</v>
+      </c>
+    </row>
+    <row r="314" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A314">
+        <v>135.965</v>
+      </c>
+      <c r="B314">
+        <v>6.7982399999999998</v>
+      </c>
+      <c r="C314">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="316" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A316" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="317" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A317">
+        <v>122.36799999999999</v>
+      </c>
+      <c r="B317">
+        <v>27.192900000000002</v>
+      </c>
+    </row>
+    <row r="318" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A318">
+        <v>122.36799999999999</v>
+      </c>
+      <c r="B318">
+        <v>20.3947</v>
+      </c>
+    </row>
+    <row r="319" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A319">
+        <v>129.166</v>
+      </c>
+      <c r="B319">
+        <v>13.596500000000001</v>
+      </c>
+    </row>
+    <row r="320" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A320">
+        <v>135.965</v>
+      </c>
+      <c r="B320">
+        <v>6.7982399999999998</v>
+      </c>
+    </row>
+    <row r="322" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A322" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="323" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A323">
+        <v>123.419</v>
+      </c>
+      <c r="B323">
+        <v>26.962700000000002</v>
+      </c>
+    </row>
+    <row r="324" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A324">
+        <v>123.11799999999999</v>
+      </c>
+      <c r="B324">
+        <v>25.768999999999998</v>
+      </c>
+    </row>
+    <row r="325" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A325">
+        <v>122.291</v>
+      </c>
+      <c r="B325">
+        <v>24.0105</v>
+      </c>
+    </row>
+    <row r="326" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A326">
+        <v>121.76600000000001</v>
+      </c>
+      <c r="B326">
+        <v>22.086200000000002</v>
+      </c>
+    </row>
+    <row r="327" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A327">
+        <v>122.36799999999999</v>
+      </c>
+      <c r="B327">
+        <v>20.3947</v>
+      </c>
+    </row>
+    <row r="328" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A328">
+        <v>124.054</v>
+      </c>
+      <c r="B328">
+        <v>18.7087</v>
+      </c>
+    </row>
+    <row r="329" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A329">
+        <v>125.251</v>
+      </c>
+      <c r="B329">
+        <v>17.5123</v>
+      </c>
+    </row>
+    <row r="330" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A330">
+        <v>126.28400000000001</v>
+      </c>
+      <c r="B330">
+        <v>16.478899999999999</v>
+      </c>
+    </row>
+    <row r="331" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A331">
+        <v>127.48099999999999</v>
+      </c>
+      <c r="B331">
+        <v>15.282400000000001</v>
+      </c>
+    </row>
+    <row r="332" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A332">
+        <v>129.166</v>
+      </c>
+      <c r="B332">
+        <v>13.596500000000001</v>
+      </c>
+    </row>
+    <row r="333" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A333">
+        <v>131.179</v>
+      </c>
+      <c r="B333">
+        <v>11.1227</v>
+      </c>
+    </row>
+    <row r="334" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A334">
+        <v>133.02799999999999</v>
+      </c>
+      <c r="B334">
+        <v>8.3506400000000003</v>
+      </c>
+    </row>
+    <row r="335" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A335">
+        <v>134.55099999999999</v>
+      </c>
+      <c r="B335">
+        <v>6.1356099999999998</v>
+      </c>
+    </row>
+    <row r="336" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A336">
+        <v>135.584</v>
+      </c>
+      <c r="B336">
+        <v>5.3330200000000003</v>
+      </c>
+    </row>
+    <row r="337" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A337">
+        <v>135.965</v>
+      </c>
+      <c r="B337">
+        <v>6.7982399999999998</v>
+      </c>
+    </row>
+    <row r="339" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A339" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="341" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A341" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="342" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A342">
+        <v>139.22800000000001</v>
+      </c>
+      <c r="B342">
+        <v>31.973099999999999</v>
+      </c>
+    </row>
+    <row r="343" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A343">
+        <v>139.22800000000001</v>
+      </c>
+      <c r="B343">
+        <v>45.173099999999998</v>
+      </c>
+    </row>
+    <row r="344" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A344">
+        <v>139.22800000000001</v>
+      </c>
+      <c r="B344">
+        <v>56.573099999999997</v>
+      </c>
+    </row>
+    <row r="345" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A345">
+        <v>139.22800000000001</v>
+      </c>
+      <c r="B345">
+        <v>69.773099999999999</v>
+      </c>
+    </row>
+    <row r="346" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A346">
+        <v>139.22800000000001</v>
+      </c>
+      <c r="B346">
+        <v>88.373099999999994</v>
+      </c>
+    </row>
+    <row r="347" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A347" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="348" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A348" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="349" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A349" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="350" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A350" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="351" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A351" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="352" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A352" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="353" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A353" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="354" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A354" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="355" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A355">
+        <v>139.22800000000001</v>
+      </c>
+      <c r="B355">
+        <v>28.373100000000001</v>
+      </c>
+    </row>
+    <row r="356" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A356">
+        <v>205.233</v>
+      </c>
+      <c r="B356">
+        <v>31.2879</v>
+      </c>
+    </row>
+    <row r="357" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A357">
+        <v>100.76</v>
+      </c>
+      <c r="B357">
+        <v>74.650800000000004</v>
+      </c>
+    </row>
+    <row r="358" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A358">
+        <v>162.137</v>
+      </c>
+      <c r="B358">
+        <v>71.437899999999999</v>
+      </c>
+    </row>
+    <row r="360" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A360" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="361" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A361">
+        <v>129.166</v>
+      </c>
+      <c r="B361">
+        <v>20.3947</v>
+      </c>
+    </row>
+    <row r="362" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A362">
+        <v>129.166</v>
+      </c>
+      <c r="B362">
+        <v>27.192900000000002</v>
+      </c>
+    </row>
+    <row r="363" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A363">
+        <v>129.166</v>
+      </c>
+      <c r="B363">
+        <v>33.991199999999999</v>
+      </c>
+    </row>
+    <row r="364" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A364">
+        <v>129.166</v>
+      </c>
+      <c r="B364">
+        <v>40.789400000000001</v>
+      </c>
+    </row>
+    <row r="365" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A365">
+        <v>135.965</v>
+      </c>
+      <c r="B365">
+        <v>20.3947</v>
+      </c>
+    </row>
+    <row r="366" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A366">
+        <v>135.965</v>
+      </c>
+      <c r="B366">
+        <v>27.192900000000002</v>
+      </c>
+    </row>
+    <row r="367" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A367">
+        <v>135.965</v>
+      </c>
+      <c r="B367">
+        <v>33.991199999999999</v>
+      </c>
+    </row>
+    <row r="368" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A368">
+        <v>135.965</v>
+      </c>
+      <c r="B368">
+        <v>40.789400000000001</v>
+      </c>
+    </row>
+    <row r="369" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A369">
+        <v>142.76300000000001</v>
+      </c>
+      <c r="B369">
+        <v>20.3947</v>
+      </c>
+    </row>
+    <row r="370" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A370">
+        <v>142.76300000000001</v>
+      </c>
+      <c r="B370">
+        <v>27.192900000000002</v>
+      </c>
+    </row>
+    <row r="371" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A371">
+        <v>142.76300000000001</v>
+      </c>
+      <c r="B371">
+        <v>33.991199999999999</v>
+      </c>
+    </row>
+    <row r="372" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A372">
+        <v>142.76300000000001</v>
+      </c>
+      <c r="B372">
+        <v>40.789400000000001</v>
+      </c>
+    </row>
+    <row r="373" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A373">
+        <v>149.56100000000001</v>
+      </c>
+      <c r="B373">
+        <v>20.3947</v>
+      </c>
+    </row>
+    <row r="374" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A374">
+        <v>149.56100000000001</v>
+      </c>
+      <c r="B374">
+        <v>27.192900000000002</v>
+      </c>
+    </row>
+    <row r="375" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A375">
+        <v>149.56100000000001</v>
+      </c>
+      <c r="B375">
+        <v>33.991199999999999</v>
+      </c>
+    </row>
+    <row r="376" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A376">
+        <v>149.56100000000001</v>
+      </c>
+      <c r="B376">
+        <v>40.789400000000001</v>
+      </c>
+    </row>
+    <row r="377" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A377">
+        <v>197.149</v>
+      </c>
+      <c r="B377">
+        <v>20.3947</v>
+      </c>
+    </row>
+    <row r="378" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A378">
+        <v>197.149</v>
+      </c>
+      <c r="B378">
+        <v>27.192900000000002</v>
+      </c>
+    </row>
+    <row r="379" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A379">
+        <v>197.149</v>
+      </c>
+      <c r="B379">
+        <v>33.991199999999999</v>
+      </c>
+    </row>
+    <row r="380" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A380">
+        <v>197.149</v>
+      </c>
+      <c r="B380">
+        <v>40.789400000000001</v>
+      </c>
+    </row>
+    <row r="381" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A381">
+        <v>203.947</v>
+      </c>
+      <c r="B381">
+        <v>20.3947</v>
+      </c>
+    </row>
+    <row r="382" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A382">
+        <v>203.947</v>
+      </c>
+      <c r="B382">
+        <v>27.192900000000002</v>
+      </c>
+    </row>
+    <row r="383" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A383">
+        <v>203.947</v>
+      </c>
+      <c r="B383">
+        <v>33.991199999999999</v>
+      </c>
+    </row>
+    <row r="384" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A384">
+        <v>203.947</v>
+      </c>
+      <c r="B384">
+        <v>40.789400000000001</v>
+      </c>
+    </row>
+    <row r="385" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A385">
+        <v>210.745</v>
+      </c>
+      <c r="B385">
+        <v>20.3947</v>
+      </c>
+    </row>
+    <row r="386" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A386">
+        <v>210.745</v>
+      </c>
+      <c r="B386">
+        <v>27.192900000000002</v>
+      </c>
+    </row>
+    <row r="387" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A387">
+        <v>210.745</v>
+      </c>
+      <c r="B387">
+        <v>33.991199999999999</v>
+      </c>
+    </row>
+    <row r="388" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A388">
+        <v>210.745</v>
+      </c>
+      <c r="B388">
+        <v>40.789400000000001</v>
+      </c>
+    </row>
+    <row r="389" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A389">
+        <v>217.54400000000001</v>
+      </c>
+      <c r="B389">
+        <v>20.3947</v>
+      </c>
+    </row>
+    <row r="390" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A390">
+        <v>217.54400000000001</v>
+      </c>
+      <c r="B390">
+        <v>27.192900000000002</v>
+      </c>
+    </row>
+    <row r="391" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A391">
+        <v>217.54400000000001</v>
+      </c>
+      <c r="B391">
+        <v>33.991199999999999</v>
+      </c>
+    </row>
+    <row r="392" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A392">
+        <v>217.54400000000001</v>
+      </c>
+      <c r="B392">
+        <v>40.789400000000001</v>
+      </c>
+    </row>
+    <row r="393" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A393">
+        <v>88.377099999999999</v>
+      </c>
+      <c r="B393">
+        <v>67.982399999999998</v>
+      </c>
+    </row>
+    <row r="394" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A394">
+        <v>88.377099999999999</v>
+      </c>
+      <c r="B394">
+        <v>74.780600000000007</v>
+      </c>
+    </row>
+    <row r="395" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A395">
+        <v>88.377099999999999</v>
+      </c>
+      <c r="B395">
+        <v>81.578800000000001</v>
+      </c>
+    </row>
+    <row r="396" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A396">
+        <v>95.175299999999993</v>
+      </c>
+      <c r="B396">
+        <v>67.982399999999998</v>
+      </c>
+    </row>
+    <row r="397" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A397">
+        <v>95.175299999999993</v>
+      </c>
+      <c r="B397">
+        <v>74.780600000000007</v>
+      </c>
+    </row>
+    <row r="398" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A398">
+        <v>95.175299999999993</v>
+      </c>
+      <c r="B398">
+        <v>81.578800000000001</v>
+      </c>
+    </row>
+    <row r="399" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A399">
+        <v>101.974</v>
+      </c>
+      <c r="B399">
+        <v>67.982399999999998</v>
+      </c>
+    </row>
+    <row r="400" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A400">
+        <v>101.974</v>
+      </c>
+      <c r="B400">
+        <v>74.780600000000007</v>
+      </c>
+    </row>
+    <row r="401" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A401">
+        <v>101.974</v>
+      </c>
+      <c r="B401">
+        <v>81.578800000000001</v>
+      </c>
+    </row>
+    <row r="402" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A402">
+        <v>108.77200000000001</v>
+      </c>
+      <c r="B402">
+        <v>67.982399999999998</v>
+      </c>
+    </row>
+    <row r="403" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A403">
+        <v>108.77200000000001</v>
+      </c>
+      <c r="B403">
+        <v>74.780600000000007</v>
+      </c>
+    </row>
+    <row r="404" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A404">
+        <v>108.77200000000001</v>
+      </c>
+      <c r="B404">
+        <v>81.578800000000001</v>
+      </c>
+    </row>
+    <row r="405" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A405">
+        <v>156.35900000000001</v>
+      </c>
+      <c r="B405">
+        <v>61.184100000000001</v>
+      </c>
+    </row>
+    <row r="406" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A406">
+        <v>156.35900000000001</v>
+      </c>
+      <c r="B406">
+        <v>67.982399999999998</v>
+      </c>
+    </row>
+    <row r="407" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A407">
+        <v>156.35900000000001</v>
+      </c>
+      <c r="B407">
+        <v>74.780600000000007</v>
+      </c>
+    </row>
+    <row r="408" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A408">
+        <v>156.35900000000001</v>
+      </c>
+      <c r="B408">
+        <v>81.578800000000001</v>
+      </c>
+    </row>
+    <row r="409" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A409">
+        <v>163.15799999999999</v>
+      </c>
+      <c r="B409">
+        <v>61.184100000000001</v>
+      </c>
+    </row>
+    <row r="410" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A410">
+        <v>163.15799999999999</v>
+      </c>
+      <c r="B410">
+        <v>67.982399999999998</v>
+      </c>
+    </row>
+    <row r="411" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A411">
+        <v>163.15799999999999</v>
+      </c>
+      <c r="B411">
+        <v>74.780600000000007</v>
+      </c>
+    </row>
+    <row r="412" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A412">
+        <v>163.15799999999999</v>
+      </c>
+      <c r="B412">
+        <v>81.578800000000001</v>
+      </c>
+    </row>
+    <row r="413" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A413">
+        <v>169.95599999999999</v>
+      </c>
+      <c r="B413">
+        <v>61.184100000000001</v>
+      </c>
+    </row>
+    <row r="414" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A414">
+        <v>169.95599999999999</v>
+      </c>
+      <c r="B414">
+        <v>67.982399999999998</v>
+      </c>
+    </row>
+    <row r="415" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A415">
+        <v>169.95599999999999</v>
+      </c>
+      <c r="B415">
+        <v>74.780600000000007</v>
+      </c>
+    </row>
+    <row r="416" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A416">
+        <v>169.95599999999999</v>
+      </c>
+      <c r="B416">
+        <v>81.578800000000001</v>
+      </c>
+    </row>
+    <row r="418" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A418" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="419" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A419">
+        <v>135.965</v>
+      </c>
+      <c r="B419">
+        <v>88.377099999999999</v>
+      </c>
+      <c r="C419">
+        <v>99.344700000000003</v>
+      </c>
+    </row>
+    <row r="420" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A420">
+        <v>149.56100000000001</v>
+      </c>
+      <c r="B420">
+        <v>74.780600000000007</v>
+      </c>
+      <c r="C420">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="421" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A421">
+        <v>149.56100000000001</v>
+      </c>
+      <c r="B421">
+        <v>61.184100000000001</v>
+      </c>
+      <c r="C421">
+        <v>-45</v>
+      </c>
+    </row>
+    <row r="422" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A422">
+        <v>156.35900000000001</v>
+      </c>
+      <c r="B422">
+        <v>54.385899999999999</v>
+      </c>
+      <c r="C422">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="424" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A424" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="425" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A425">
+        <v>135.965</v>
+      </c>
+      <c r="B425">
+        <v>88.377099999999999</v>
+      </c>
+    </row>
+    <row r="426" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A426">
+        <v>142.76300000000001</v>
+      </c>
+      <c r="B426">
+        <v>81.578800000000001</v>
+      </c>
+    </row>
+    <row r="427" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A427">
+        <v>149.56100000000001</v>
+      </c>
+      <c r="B427">
+        <v>74.780600000000007</v>
+      </c>
+    </row>
+    <row r="428" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A428">
+        <v>149.56100000000001</v>
+      </c>
+      <c r="B428">
+        <v>67.982399999999998</v>
+      </c>
+    </row>
+    <row r="429" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A429">
+        <v>149.56100000000001</v>
+      </c>
+      <c r="B429">
+        <v>61.184100000000001</v>
+      </c>
+    </row>
+    <row r="430" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A430">
+        <v>156.35900000000001</v>
+      </c>
+      <c r="B430">
+        <v>54.385899999999999</v>
+      </c>
+    </row>
+    <row r="432" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A432" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="433" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A433">
+        <v>136.779</v>
+      </c>
+      <c r="B433">
+        <v>89.682900000000004</v>
+      </c>
+    </row>
+    <row r="434" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A434">
+        <v>140.07599999999999</v>
+      </c>
+      <c r="B434">
+        <v>84.920400000000001</v>
+      </c>
+    </row>
+    <row r="435" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A435">
+        <v>144.32599999999999</v>
+      </c>
+      <c r="B435">
+        <v>78.145399999999995</v>
+      </c>
+    </row>
+    <row r="436" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A436">
+        <v>147.99700000000001</v>
+      </c>
+      <c r="B436">
+        <v>73.413499999999999</v>
+      </c>
+    </row>
+    <row r="437" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A437">
+        <v>149.56100000000001</v>
+      </c>
+      <c r="B437">
+        <v>74.780600000000007</v>
+      </c>
+    </row>
+    <row r="438" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A438">
+        <v>149.1</v>
+      </c>
+      <c r="B438">
+        <v>76.438599999999994</v>
+      </c>
+    </row>
+    <row r="439" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A439">
+        <v>148.17699999999999</v>
+      </c>
+      <c r="B439">
+        <v>74.315899999999999</v>
+      </c>
+    </row>
+    <row r="440" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A440">
+        <v>147.48500000000001</v>
+      </c>
+      <c r="B440">
+        <v>70.004599999999996</v>
+      </c>
+    </row>
+    <row r="441" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A441">
+        <v>147.715</v>
+      </c>
+      <c r="B441">
+        <v>65.096699999999998</v>
+      </c>
+    </row>
+    <row r="442" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A442">
+        <v>149.56100000000001</v>
+      </c>
+      <c r="B442">
+        <v>61.184100000000001</v>
+      </c>
+    </row>
+    <row r="443" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A443">
+        <v>151.57300000000001</v>
+      </c>
+      <c r="B443">
+        <v>58.7104</v>
+      </c>
+    </row>
+    <row r="444" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A444">
+        <v>153.423</v>
+      </c>
+      <c r="B444">
+        <v>55.938299999999998</v>
+      </c>
+    </row>
+    <row r="445" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A445">
+        <v>154.94499999999999</v>
+      </c>
+      <c r="B445">
+        <v>53.723300000000002</v>
+      </c>
+    </row>
+    <row r="446" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A446">
+        <v>155.97900000000001</v>
+      </c>
+      <c r="B446">
+        <v>52.920699999999997</v>
+      </c>
+    </row>
+    <row r="447" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A447">
+        <v>156.35900000000001</v>
+      </c>
+      <c r="B447">
+        <v>54.385899999999999</v>
+      </c>
+    </row>
+    <row r="449" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A449" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="451" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A451" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="452" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A452">
+        <v>162.06899999999999</v>
+      </c>
+      <c r="B452">
+        <v>63.818100000000001</v>
+      </c>
+    </row>
+    <row r="453" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A453">
+        <v>162.06899999999999</v>
+      </c>
+      <c r="B453">
+        <v>69.098100000000002</v>
+      </c>
+    </row>
+    <row r="454" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A454">
+        <v>162.06899999999999</v>
+      </c>
+      <c r="B454">
+        <v>73.658100000000005</v>
+      </c>
+    </row>
+    <row r="455" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A455">
+        <v>162.06899999999999</v>
+      </c>
+      <c r="B455">
+        <v>78.938000000000002</v>
+      </c>
+    </row>
+    <row r="456" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A456">
+        <v>162.06899999999999</v>
+      </c>
+      <c r="B456">
+        <v>86.378100000000003</v>
+      </c>
+    </row>
+    <row r="457" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A457" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="458" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A458" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="459" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A459" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="460" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A460" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="461" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A461" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="462" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A462" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="463" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A463">
+        <v>205.18</v>
+      </c>
+      <c r="B463">
+        <v>31.292400000000001</v>
+      </c>
+    </row>
+    <row r="464" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A464">
+        <v>100.702</v>
+      </c>
+      <c r="B464">
+        <v>74.723500000000001</v>
+      </c>
+    </row>
+    <row r="465" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A465">
+        <v>164.3</v>
+      </c>
+      <c r="B465">
+        <v>99.434899999999999</v>
+      </c>
+    </row>
+    <row r="466" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A466">
+        <v>139.505</v>
+      </c>
+      <c r="B466">
+        <v>104.55800000000001</v>
+      </c>
+    </row>
+    <row r="468" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A468" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="469" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A469">
+        <v>197.149</v>
+      </c>
+      <c r="B469">
+        <v>20.3947</v>
+      </c>
+    </row>
+    <row r="470" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A470">
+        <v>197.149</v>
+      </c>
+      <c r="B470">
+        <v>27.192900000000002</v>
+      </c>
+    </row>
+    <row r="471" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A471">
+        <v>197.149</v>
+      </c>
+      <c r="B471">
+        <v>33.991199999999999</v>
+      </c>
+    </row>
+    <row r="472" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A472">
+        <v>197.149</v>
+      </c>
+      <c r="B472">
+        <v>40.789400000000001</v>
+      </c>
+    </row>
+    <row r="473" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A473">
+        <v>203.947</v>
+      </c>
+      <c r="B473">
+        <v>20.3947</v>
+      </c>
+    </row>
+    <row r="474" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A474">
+        <v>203.947</v>
+      </c>
+      <c r="B474">
+        <v>27.192900000000002</v>
+      </c>
+    </row>
+    <row r="475" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A475">
+        <v>203.947</v>
+      </c>
+      <c r="B475">
+        <v>33.991199999999999</v>
+      </c>
+    </row>
+    <row r="476" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A476">
+        <v>203.947</v>
+      </c>
+      <c r="B476">
+        <v>40.789400000000001</v>
+      </c>
+    </row>
+    <row r="477" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A477">
+        <v>210.745</v>
+      </c>
+      <c r="B477">
+        <v>20.3947</v>
+      </c>
+    </row>
+    <row r="478" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A478">
+        <v>210.745</v>
+      </c>
+      <c r="B478">
+        <v>27.192900000000002</v>
+      </c>
+    </row>
+    <row r="479" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A479">
+        <v>210.745</v>
+      </c>
+      <c r="B479">
+        <v>33.991199999999999</v>
+      </c>
+    </row>
+    <row r="480" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A480">
+        <v>210.745</v>
+      </c>
+      <c r="B480">
+        <v>40.789400000000001</v>
+      </c>
+    </row>
+    <row r="481" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A481">
+        <v>217.54400000000001</v>
+      </c>
+      <c r="B481">
+        <v>20.3947</v>
+      </c>
+    </row>
+    <row r="482" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A482">
+        <v>217.54400000000001</v>
+      </c>
+      <c r="B482">
+        <v>27.192900000000002</v>
+      </c>
+    </row>
+    <row r="483" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A483">
+        <v>217.54400000000001</v>
+      </c>
+      <c r="B483">
+        <v>33.991199999999999</v>
+      </c>
+    </row>
+    <row r="484" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A484">
+        <v>217.54400000000001</v>
+      </c>
+      <c r="B484">
+        <v>40.789400000000001</v>
+      </c>
+    </row>
+    <row r="485" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A485">
+        <v>88.377099999999999</v>
+      </c>
+      <c r="B485">
+        <v>67.982399999999998</v>
+      </c>
+    </row>
+    <row r="486" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A486">
+        <v>88.377099999999999</v>
+      </c>
+      <c r="B486">
+        <v>74.780600000000007</v>
+      </c>
+    </row>
+    <row r="487" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A487">
+        <v>88.377099999999999</v>
+      </c>
+      <c r="B487">
+        <v>81.578800000000001</v>
+      </c>
+    </row>
+    <row r="488" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A488">
+        <v>95.175299999999993</v>
+      </c>
+      <c r="B488">
+        <v>67.982399999999998</v>
+      </c>
+    </row>
+    <row r="489" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A489">
+        <v>95.175299999999993</v>
+      </c>
+      <c r="B489">
+        <v>74.780600000000007</v>
+      </c>
+    </row>
+    <row r="490" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A490">
+        <v>95.175299999999993</v>
+      </c>
+      <c r="B490">
+        <v>81.578800000000001</v>
+      </c>
+    </row>
+    <row r="491" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A491">
+        <v>101.974</v>
+      </c>
+      <c r="B491">
+        <v>67.982399999999998</v>
+      </c>
+    </row>
+    <row r="492" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A492">
+        <v>101.974</v>
+      </c>
+      <c r="B492">
+        <v>74.780600000000007</v>
+      </c>
+    </row>
+    <row r="493" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A493">
+        <v>101.974</v>
+      </c>
+      <c r="B493">
+        <v>81.578800000000001</v>
+      </c>
+    </row>
+    <row r="494" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A494">
+        <v>108.77200000000001</v>
+      </c>
+      <c r="B494">
+        <v>67.982399999999998</v>
+      </c>
+    </row>
+    <row r="495" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A495">
+        <v>108.77200000000001</v>
+      </c>
+      <c r="B495">
+        <v>74.780600000000007</v>
+      </c>
+    </row>
+    <row r="496" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A496">
+        <v>108.77200000000001</v>
+      </c>
+      <c r="B496">
+        <v>81.578800000000001</v>
+      </c>
+    </row>
+    <row r="497" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A497">
+        <v>156.35900000000001</v>
+      </c>
+      <c r="B497">
+        <v>88.377099999999999</v>
+      </c>
+    </row>
+    <row r="498" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A498">
+        <v>156.35900000000001</v>
+      </c>
+      <c r="B498">
+        <v>95.175299999999993</v>
+      </c>
+    </row>
+    <row r="499" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A499">
+        <v>163.15799999999999</v>
+      </c>
+      <c r="B499">
+        <v>88.377099999999999</v>
+      </c>
+    </row>
+    <row r="500" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A500">
+        <v>163.15799999999999</v>
+      </c>
+      <c r="B500">
+        <v>95.175299999999993</v>
+      </c>
+    </row>
+    <row r="501" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A501">
+        <v>169.95599999999999</v>
+      </c>
+      <c r="B501">
+        <v>88.377099999999999</v>
+      </c>
+    </row>
+    <row r="502" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A502">
+        <v>169.95599999999999</v>
+      </c>
+      <c r="B502">
+        <v>95.175299999999993</v>
+      </c>
+    </row>
+    <row r="503" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A503">
+        <v>176.75399999999999</v>
+      </c>
+      <c r="B503">
+        <v>88.377099999999999</v>
+      </c>
+    </row>
+    <row r="504" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A504">
+        <v>176.75399999999999</v>
+      </c>
+      <c r="B504">
+        <v>95.175299999999993</v>
+      </c>
+    </row>
+    <row r="505" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A505">
+        <v>129.166</v>
+      </c>
+      <c r="B505">
+        <v>95.175299999999993</v>
+      </c>
+    </row>
+    <row r="506" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A506">
+        <v>135.965</v>
+      </c>
+      <c r="B506">
+        <v>95.175299999999993</v>
+      </c>
+    </row>
+    <row r="507" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A507">
+        <v>142.76300000000001</v>
+      </c>
+      <c r="B507">
+        <v>95.175299999999993</v>
+      </c>
+    </row>
+    <row r="508" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A508">
+        <v>149.56100000000001</v>
+      </c>
+      <c r="B508">
+        <v>95.175299999999993</v>
+      </c>
+    </row>
+    <row r="510" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A510" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="511" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A511">
+        <v>190.351</v>
+      </c>
+      <c r="B511">
+        <v>27.192900000000002</v>
+      </c>
+      <c r="C511">
+        <v>19.204000000000001</v>
+      </c>
+    </row>
+    <row r="512" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A512">
+        <v>190.351</v>
+      </c>
+      <c r="B512">
+        <v>20.3947</v>
+      </c>
+      <c r="C512">
+        <v>-45</v>
+      </c>
+    </row>
+    <row r="513" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A513">
+        <v>197.149</v>
+      </c>
+      <c r="B513">
+        <v>13.596500000000001</v>
+      </c>
+      <c r="C513">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="514" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A514">
+        <v>217.54400000000001</v>
+      </c>
+      <c r="B514">
+        <v>13.596500000000001</v>
+      </c>
+      <c r="C514">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="515" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A515">
+        <v>224.34200000000001</v>
+      </c>
+      <c r="B515">
+        <v>20.3947</v>
+      </c>
+      <c r="C515">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="516" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A516">
+        <v>224.34200000000001</v>
+      </c>
+      <c r="B516">
+        <v>27.192900000000002</v>
+      </c>
+      <c r="C516">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="518" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A518" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="519" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A519">
+        <v>190.351</v>
+      </c>
+      <c r="B519">
+        <v>27.192900000000002</v>
+      </c>
+    </row>
+    <row r="520" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A520">
+        <v>190.351</v>
+      </c>
+      <c r="B520">
+        <v>33.991199999999999</v>
+      </c>
+    </row>
+    <row r="521" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A521">
+        <v>190.351</v>
+      </c>
+      <c r="B521">
+        <v>20.3947</v>
+      </c>
+    </row>
+    <row r="522" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A522">
+        <v>197.149</v>
+      </c>
+      <c r="B522">
+        <v>13.596500000000001</v>
+      </c>
+    </row>
+    <row r="523" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A523">
+        <v>203.947</v>
+      </c>
+      <c r="B523">
+        <v>13.596500000000001</v>
+      </c>
+    </row>
+    <row r="524" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A524">
+        <v>210.745</v>
+      </c>
+      <c r="B524">
+        <v>13.596500000000001</v>
+      </c>
+    </row>
+    <row r="525" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A525">
+        <v>217.54400000000001</v>
+      </c>
+      <c r="B525">
+        <v>13.596500000000001</v>
+      </c>
+    </row>
+    <row r="526" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A526">
+        <v>224.34200000000001</v>
+      </c>
+      <c r="B526">
+        <v>20.3947</v>
+      </c>
+    </row>
+    <row r="527" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A527">
+        <v>224.34200000000001</v>
+      </c>
+      <c r="B527">
+        <v>27.192900000000002</v>
+      </c>
+    </row>
+    <row r="529" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A529" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="530" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A530">
+        <v>191.352</v>
+      </c>
+      <c r="B530">
+        <v>27.146000000000001</v>
+      </c>
+    </row>
+    <row r="531" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A531">
+        <v>191.04499999999999</v>
+      </c>
+      <c r="B531">
+        <v>25.975200000000001</v>
+      </c>
+    </row>
+    <row r="532" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A532">
+        <v>190.23699999999999</v>
+      </c>
+      <c r="B532">
+        <v>24.148</v>
+      </c>
+    </row>
+    <row r="533" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A533">
+        <v>189.73599999999999</v>
+      </c>
+      <c r="B533">
+        <v>22.132000000000001</v>
+      </c>
+    </row>
+    <row r="534" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A534">
+        <v>190.351</v>
+      </c>
+      <c r="B534">
+        <v>20.3947</v>
+      </c>
+    </row>
+    <row r="535" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A535">
+        <v>192.82400000000001</v>
+      </c>
+      <c r="B535">
+        <v>18.382400000000001</v>
+      </c>
+    </row>
+    <row r="536" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A536">
+        <v>195.596</v>
+      </c>
+      <c r="B536">
+        <v>16.533300000000001</v>
+      </c>
+    </row>
+    <row r="537" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A537">
+        <v>197.81100000000001</v>
+      </c>
+      <c r="B537">
+        <v>15.0105</v>
+      </c>
+    </row>
+    <row r="538" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A538">
+        <v>198.614</v>
+      </c>
+      <c r="B538">
+        <v>13.9772</v>
+      </c>
+    </row>
+    <row r="539" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A539">
+        <v>197.149</v>
+      </c>
+      <c r="B539">
+        <v>13.596500000000001</v>
+      </c>
+    </row>
+    <row r="540" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A540">
+        <v>194.66200000000001</v>
+      </c>
+      <c r="B540">
+        <v>12.904299999999999</v>
+      </c>
+    </row>
+    <row r="541" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A541">
+        <v>197.846</v>
+      </c>
+      <c r="B541">
+        <v>11.5198</v>
+      </c>
+    </row>
+    <row r="542" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A542">
+        <v>204.31299999999999</v>
+      </c>
+      <c r="B542">
+        <v>10.4815</v>
+      </c>
+    </row>
+    <row r="543" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A543">
+        <v>211.67500000000001</v>
+      </c>
+      <c r="B543">
+        <v>10.8276</v>
+      </c>
+    </row>
+    <row r="544" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A544">
+        <v>217.54400000000001</v>
+      </c>
+      <c r="B544">
+        <v>13.596500000000001</v>
+      </c>
+    </row>
+    <row r="545" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A545">
+        <v>219.55600000000001</v>
+      </c>
+      <c r="B545">
+        <v>15.1473</v>
+      </c>
+    </row>
+    <row r="546" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A546">
+        <v>221.405</v>
+      </c>
+      <c r="B546">
+        <v>16.073399999999999</v>
+      </c>
+    </row>
+    <row r="547" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A547">
+        <v>222.928</v>
+      </c>
+      <c r="B547">
+        <v>16.904</v>
+      </c>
+    </row>
+    <row r="548" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A548">
+        <v>223.96100000000001</v>
+      </c>
+      <c r="B548">
+        <v>18.168099999999999</v>
+      </c>
+    </row>
+    <row r="549" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A549">
+        <v>224.34200000000001</v>
+      </c>
+      <c r="B549">
+        <v>20.3947</v>
+      </c>
+    </row>
+    <row r="550" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A550">
+        <v>224.66800000000001</v>
+      </c>
+      <c r="B550">
+        <v>22.407</v>
+      </c>
+    </row>
+    <row r="551" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A551">
+        <v>225.321</v>
+      </c>
+      <c r="B551">
+        <v>24.2561</v>
+      </c>
+    </row>
+    <row r="552" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A552">
+        <v>225.81</v>
+      </c>
+      <c r="B552">
+        <v>25.7789</v>
+      </c>
+    </row>
+    <row r="553" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A553">
+        <v>225.64699999999999</v>
+      </c>
+      <c r="B553">
+        <v>26.812200000000001</v>
+      </c>
+    </row>
+    <row r="554" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A554">
+        <v>224.34200000000001</v>
+      </c>
+      <c r="B554">
+        <v>27.192900000000002</v>
+      </c>
+    </row>
+    <row r="556" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A556" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="557" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A557" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="558" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A558">
+        <v>190.42</v>
+      </c>
+      <c r="B558">
+        <v>31.292400000000001</v>
+      </c>
+    </row>
+    <row r="559" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A559">
+        <v>169.3</v>
+      </c>
+      <c r="B559">
+        <v>31.292400000000001</v>
+      </c>
+    </row>
+    <row r="560" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A560">
+        <v>151.06</v>
+      </c>
+      <c r="B560">
+        <v>31.292400000000001</v>
+      </c>
+    </row>
+    <row r="561" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A561">
+        <v>129.94</v>
+      </c>
+      <c r="B561">
+        <v>31.292400000000001</v>
+      </c>
+    </row>
+    <row r="562" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A562">
+        <v>100.18</v>
+      </c>
+      <c r="B562">
+        <v>31.292400000000001</v>
+      </c>
+    </row>
+    <row r="563" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A563" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="564" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A564" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="565" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A565" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="566" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A566" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="567" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A567">
+        <v>164.27099999999999</v>
+      </c>
+      <c r="B567">
+        <v>99.659400000000005</v>
+      </c>
+    </row>
+    <row r="568" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A568">
+        <v>85.733500000000006</v>
+      </c>
+      <c r="B568">
+        <v>29.554300000000001</v>
+      </c>
+    </row>
+    <row r="569" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A569">
+        <v>100.702</v>
+      </c>
+      <c r="B569">
+        <v>74.723500000000001</v>
+      </c>
+    </row>
+    <row r="570" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A570">
+        <v>139.505</v>
+      </c>
+      <c r="B570">
+        <v>104.55800000000001</v>
+      </c>
+    </row>
+    <row r="572" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A572" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="573" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A573">
+        <v>156.35900000000001</v>
+      </c>
+      <c r="B573">
+        <v>88.377099999999999</v>
+      </c>
+    </row>
+    <row r="574" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A574">
+        <v>156.35900000000001</v>
+      </c>
+      <c r="B574">
+        <v>95.175299999999993</v>
+      </c>
+    </row>
+    <row r="575" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A575">
+        <v>163.15799999999999</v>
+      </c>
+      <c r="B575">
+        <v>88.377099999999999</v>
+      </c>
+    </row>
+    <row r="576" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A576">
+        <v>163.15799999999999</v>
+      </c>
+      <c r="B576">
+        <v>95.175299999999993</v>
+      </c>
+    </row>
+    <row r="577" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A577">
+        <v>169.95599999999999</v>
+      </c>
+      <c r="B577">
+        <v>88.377099999999999</v>
+      </c>
+    </row>
+    <row r="578" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A578">
+        <v>169.95599999999999</v>
+      </c>
+      <c r="B578">
+        <v>95.175299999999993</v>
+      </c>
+    </row>
+    <row r="579" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A579">
+        <v>176.75399999999999</v>
+      </c>
+      <c r="B579">
+        <v>88.377099999999999</v>
+      </c>
+    </row>
+    <row r="580" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A580">
+        <v>176.75399999999999</v>
+      </c>
+      <c r="B580">
+        <v>95.175299999999993</v>
+      </c>
+    </row>
+    <row r="581" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A581">
+        <v>74.780600000000007</v>
+      </c>
+      <c r="B581">
+        <v>20.3947</v>
+      </c>
+    </row>
+    <row r="582" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A582">
+        <v>74.780600000000007</v>
+      </c>
+      <c r="B582">
+        <v>27.192900000000002</v>
+      </c>
+    </row>
+    <row r="583" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A583">
+        <v>74.780600000000007</v>
+      </c>
+      <c r="B583">
+        <v>33.991199999999999</v>
+      </c>
+    </row>
+    <row r="584" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A584">
+        <v>74.780600000000007</v>
+      </c>
+      <c r="B584">
+        <v>40.789400000000001</v>
+      </c>
+    </row>
+    <row r="585" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A585">
+        <v>81.578800000000001</v>
+      </c>
+      <c r="B585">
+        <v>20.3947</v>
+      </c>
+    </row>
+    <row r="586" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A586">
+        <v>81.578800000000001</v>
+      </c>
+      <c r="B586">
+        <v>27.192900000000002</v>
+      </c>
+    </row>
+    <row r="587" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A587">
+        <v>81.578800000000001</v>
+      </c>
+      <c r="B587">
+        <v>33.991199999999999</v>
+      </c>
+    </row>
+    <row r="588" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A588">
+        <v>81.578800000000001</v>
+      </c>
+      <c r="B588">
+        <v>40.789400000000001</v>
+      </c>
+    </row>
+    <row r="589" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A589">
+        <v>88.377099999999999</v>
+      </c>
+      <c r="B589">
+        <v>20.3947</v>
+      </c>
+    </row>
+    <row r="590" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A590">
+        <v>88.377099999999999</v>
+      </c>
+      <c r="B590">
+        <v>27.192900000000002</v>
+      </c>
+    </row>
+    <row r="591" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A591">
+        <v>88.377099999999999</v>
+      </c>
+      <c r="B591">
+        <v>33.991199999999999</v>
+      </c>
+    </row>
+    <row r="592" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A592">
+        <v>88.377099999999999</v>
+      </c>
+      <c r="B592">
+        <v>40.789400000000001</v>
+      </c>
+    </row>
+    <row r="593" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A593">
+        <v>95.175299999999993</v>
+      </c>
+      <c r="B593">
+        <v>20.3947</v>
+      </c>
+    </row>
+    <row r="594" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A594">
+        <v>95.175299999999993</v>
+      </c>
+      <c r="B594">
+        <v>27.192900000000002</v>
+      </c>
+    </row>
+    <row r="595" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A595">
+        <v>95.175299999999993</v>
+      </c>
+      <c r="B595">
+        <v>33.991199999999999</v>
+      </c>
+    </row>
+    <row r="596" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A596">
+        <v>95.175299999999993</v>
+      </c>
+      <c r="B596">
+        <v>40.789400000000001</v>
+      </c>
+    </row>
+    <row r="597" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A597">
+        <v>88.377099999999999</v>
+      </c>
+      <c r="B597">
+        <v>67.982399999999998</v>
+      </c>
+    </row>
+    <row r="598" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A598">
+        <v>88.377099999999999</v>
+      </c>
+      <c r="B598">
+        <v>74.780600000000007</v>
+      </c>
+    </row>
+    <row r="599" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A599">
+        <v>88.377099999999999</v>
+      </c>
+      <c r="B599">
+        <v>81.578800000000001</v>
+      </c>
+    </row>
+    <row r="600" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A600">
+        <v>95.175299999999993</v>
+      </c>
+      <c r="B600">
+        <v>67.982399999999998</v>
+      </c>
+    </row>
+    <row r="601" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A601">
+        <v>95.175299999999993</v>
+      </c>
+      <c r="B601">
+        <v>74.780600000000007</v>
+      </c>
+    </row>
+    <row r="602" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A602">
+        <v>95.175299999999993</v>
+      </c>
+      <c r="B602">
+        <v>81.578800000000001</v>
+      </c>
+    </row>
+    <row r="603" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A603">
+        <v>101.974</v>
+      </c>
+      <c r="B603">
+        <v>67.982399999999998</v>
+      </c>
+    </row>
+    <row r="604" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A604">
+        <v>101.974</v>
+      </c>
+      <c r="B604">
+        <v>74.780600000000007</v>
+      </c>
+    </row>
+    <row r="605" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A605">
+        <v>101.974</v>
+      </c>
+      <c r="B605">
+        <v>81.578800000000001</v>
+      </c>
+    </row>
+    <row r="606" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A606">
+        <v>108.77200000000001</v>
+      </c>
+      <c r="B606">
+        <v>67.982399999999998</v>
+      </c>
+    </row>
+    <row r="607" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A607">
+        <v>108.77200000000001</v>
+      </c>
+      <c r="B607">
+        <v>74.780600000000007</v>
+      </c>
+    </row>
+    <row r="608" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A608">
+        <v>108.77200000000001</v>
+      </c>
+      <c r="B608">
+        <v>81.578800000000001</v>
+      </c>
+    </row>
+    <row r="609" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A609">
+        <v>129.166</v>
+      </c>
+      <c r="B609">
+        <v>95.175299999999993</v>
+      </c>
+    </row>
+    <row r="610" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A610">
+        <v>135.965</v>
+      </c>
+      <c r="B610">
+        <v>95.175299999999993</v>
+      </c>
+    </row>
+    <row r="611" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A611">
+        <v>142.76300000000001</v>
+      </c>
+      <c r="B611">
+        <v>95.175299999999993</v>
+      </c>
+    </row>
+    <row r="612" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A612">
+        <v>149.56100000000001</v>
+      </c>
+      <c r="B612">
+        <v>95.175299999999993</v>
+      </c>
+    </row>
+    <row r="614" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A614" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="615" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A615">
+        <v>101.974</v>
+      </c>
+      <c r="B615">
+        <v>33.991199999999999</v>
+      </c>
+      <c r="C615">
+        <v>190.58199999999999</v>
+      </c>
+    </row>
+    <row r="616" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A616">
+        <v>101.974</v>
+      </c>
+      <c r="B616">
+        <v>20.3947</v>
+      </c>
+      <c r="C616">
+        <v>-135</v>
+      </c>
+    </row>
+    <row r="617" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A617">
+        <v>95.175299999999993</v>
+      </c>
+      <c r="B617">
+        <v>13.596500000000001</v>
+      </c>
+      <c r="C617">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="619" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A619" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="620" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A620">
+        <v>101.974</v>
+      </c>
+      <c r="B620">
+        <v>33.991199999999999</v>
+      </c>
+    </row>
+    <row r="621" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A621">
+        <v>101.974</v>
+      </c>
+      <c r="B621">
+        <v>27.192900000000002</v>
+      </c>
+    </row>
+    <row r="622" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A622">
+        <v>101.974</v>
+      </c>
+      <c r="B622">
+        <v>20.3947</v>
+      </c>
+    </row>
+    <row r="623" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A623">
+        <v>95.175299999999993</v>
+      </c>
+      <c r="B623">
+        <v>13.596500000000001</v>
+      </c>
+    </row>
+    <row r="625" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A625" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="626" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A626">
+        <v>99.868899999999996</v>
+      </c>
+      <c r="B626">
+        <v>32.559199999999997</v>
+      </c>
+    </row>
+    <row r="627" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A627">
+        <v>100.471</v>
+      </c>
+      <c r="B627">
+        <v>30.0503</v>
+      </c>
+    </row>
+    <row r="628" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A628">
+        <v>102.126</v>
+      </c>
+      <c r="B628">
+        <v>26.8978</v>
+      </c>
+    </row>
+    <row r="629" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A629">
+        <v>103.178</v>
+      </c>
+      <c r="B629">
+        <v>23.534800000000001</v>
+      </c>
+    </row>
+    <row r="630" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A630">
+        <v>101.974</v>
+      </c>
+      <c r="B630">
+        <v>20.3947</v>
+      </c>
+    </row>
+    <row r="631" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A631">
+        <v>99.961299999999994</v>
+      </c>
+      <c r="B631">
+        <v>17.9209</v>
+      </c>
+    </row>
+    <row r="632" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A632">
+        <v>98.112099999999998</v>
+      </c>
+      <c r="B632">
+        <v>15.148899999999999</v>
+      </c>
+    </row>
+    <row r="633" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A633">
+        <v>96.589299999999994</v>
+      </c>
+      <c r="B633">
+        <v>12.9338</v>
+      </c>
+    </row>
+    <row r="634" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A634">
+        <v>95.555999999999997</v>
+      </c>
+      <c r="B634">
+        <v>12.1313</v>
+      </c>
+    </row>
+    <row r="635" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A635">
+        <v>95.175299999999993</v>
+      </c>
+      <c r="B635">
+        <v>13.596500000000001</v>
+      </c>
+    </row>
+    <row r="637" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A637" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="638" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A638" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="639" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A639">
+        <v>85.733500000000006</v>
+      </c>
+      <c r="B639">
+        <v>33.154299999999999</v>
+      </c>
+    </row>
+    <row r="640" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A640">
+        <v>85.733500000000006</v>
+      </c>
+      <c r="B640">
+        <v>46.354300000000002</v>
+      </c>
+    </row>
+    <row r="641" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A641">
+        <v>85.733500000000006</v>
+      </c>
+      <c r="B641">
+        <v>57.754300000000001</v>
+      </c>
+    </row>
+    <row r="642" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A642">
+        <v>85.733500000000006</v>
+      </c>
+      <c r="B642">
+        <v>70.954300000000003</v>
+      </c>
+    </row>
+    <row r="643" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A643">
+        <v>85.733500000000006</v>
+      </c>
+      <c r="B643">
+        <v>89.554299999999998</v>
+      </c>
+    </row>
+    <row r="644" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A644" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="645" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A645" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="646" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A646">
+        <v>164.27099999999999</v>
+      </c>
+      <c r="B646">
+        <v>99.659400000000005</v>
+      </c>
+    </row>
+    <row r="647" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A647">
+        <v>85.733500000000006</v>
+      </c>
+      <c r="B647">
+        <v>29.554300000000001</v>
+      </c>
+    </row>
+    <row r="648" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A648">
+        <v>100.702</v>
+      </c>
+      <c r="B648">
+        <v>74.723500000000001</v>
+      </c>
+    </row>
+    <row r="649" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A649">
+        <v>139.505</v>
+      </c>
+      <c r="B649">
+        <v>104.55800000000001</v>
+      </c>
+    </row>
+    <row r="651" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A651" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="652" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A652">
+        <v>156.35900000000001</v>
+      </c>
+      <c r="B652">
+        <v>88.377099999999999</v>
+      </c>
+    </row>
+    <row r="653" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A653">
+        <v>156.35900000000001</v>
+      </c>
+      <c r="B653">
+        <v>95.175299999999993</v>
+      </c>
+    </row>
+    <row r="654" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A654">
+        <v>163.15799999999999</v>
+      </c>
+      <c r="B654">
+        <v>88.377099999999999</v>
+      </c>
+    </row>
+    <row r="655" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A655">
+        <v>163.15799999999999</v>
+      </c>
+      <c r="B655">
+        <v>95.175299999999993</v>
+      </c>
+    </row>
+    <row r="656" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A656">
+        <v>169.95599999999999</v>
+      </c>
+      <c r="B656">
+        <v>88.377099999999999</v>
+      </c>
+    </row>
+    <row r="657" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A657">
+        <v>169.95599999999999</v>
+      </c>
+      <c r="B657">
+        <v>95.175299999999993</v>
+      </c>
+    </row>
+    <row r="658" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A658">
+        <v>176.75399999999999</v>
+      </c>
+      <c r="B658">
+        <v>88.377099999999999</v>
+      </c>
+    </row>
+    <row r="659" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A659">
+        <v>176.75399999999999</v>
+      </c>
+      <c r="B659">
+        <v>95.175299999999993</v>
+      </c>
+    </row>
+    <row r="660" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A660">
+        <v>74.780600000000007</v>
+      </c>
+      <c r="B660">
+        <v>20.3947</v>
+      </c>
+    </row>
+    <row r="661" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A661">
+        <v>74.780600000000007</v>
+      </c>
+      <c r="B661">
+        <v>27.192900000000002</v>
+      </c>
+    </row>
+    <row r="662" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A662">
+        <v>74.780600000000007</v>
+      </c>
+      <c r="B662">
+        <v>33.991199999999999</v>
+      </c>
+    </row>
+    <row r="663" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A663">
+        <v>74.780600000000007</v>
+      </c>
+      <c r="B663">
+        <v>40.789400000000001</v>
+      </c>
+    </row>
+    <row r="664" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A664">
+        <v>81.578800000000001</v>
+      </c>
+      <c r="B664">
+        <v>20.3947</v>
+      </c>
+    </row>
+    <row r="665" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A665">
+        <v>81.578800000000001</v>
+      </c>
+      <c r="B665">
+        <v>27.192900000000002</v>
+      </c>
+    </row>
+    <row r="666" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A666">
+        <v>81.578800000000001</v>
+      </c>
+      <c r="B666">
+        <v>33.991199999999999</v>
+      </c>
+    </row>
+    <row r="667" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A667">
+        <v>81.578800000000001</v>
+      </c>
+      <c r="B667">
+        <v>40.789400000000001</v>
+      </c>
+    </row>
+    <row r="668" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A668">
+        <v>88.377099999999999</v>
+      </c>
+      <c r="B668">
+        <v>20.3947</v>
+      </c>
+    </row>
+    <row r="669" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A669">
+        <v>88.377099999999999</v>
+      </c>
+      <c r="B669">
+        <v>27.192900000000002</v>
+      </c>
+    </row>
+    <row r="670" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A670">
+        <v>88.377099999999999</v>
+      </c>
+      <c r="B670">
+        <v>33.991199999999999</v>
+      </c>
+    </row>
+    <row r="671" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A671">
+        <v>88.377099999999999</v>
+      </c>
+      <c r="B671">
+        <v>40.789400000000001</v>
+      </c>
+    </row>
+    <row r="672" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A672">
+        <v>95.175299999999993</v>
+      </c>
+      <c r="B672">
+        <v>20.3947</v>
+      </c>
+    </row>
+    <row r="673" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A673">
+        <v>95.175299999999993</v>
+      </c>
+      <c r="B673">
+        <v>27.192900000000002</v>
+      </c>
+    </row>
+    <row r="674" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A674">
+        <v>95.175299999999993</v>
+      </c>
+      <c r="B674">
+        <v>33.991199999999999</v>
+      </c>
+    </row>
+    <row r="675" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A675">
+        <v>95.175299999999993</v>
+      </c>
+      <c r="B675">
+        <v>40.789400000000001</v>
+      </c>
+    </row>
+    <row r="676" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A676">
+        <v>88.377099999999999</v>
+      </c>
+      <c r="B676">
+        <v>67.982399999999998</v>
+      </c>
+    </row>
+    <row r="677" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A677">
+        <v>88.377099999999999</v>
+      </c>
+      <c r="B677">
+        <v>74.780600000000007</v>
+      </c>
+    </row>
+    <row r="678" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A678">
+        <v>88.377099999999999</v>
+      </c>
+      <c r="B678">
+        <v>81.578800000000001</v>
+      </c>
+    </row>
+    <row r="679" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A679">
+        <v>95.175299999999993</v>
+      </c>
+      <c r="B679">
+        <v>67.982399999999998</v>
+      </c>
+    </row>
+    <row r="680" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A680">
+        <v>95.175299999999993</v>
+      </c>
+      <c r="B680">
+        <v>74.780600000000007</v>
+      </c>
+    </row>
+    <row r="681" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A681">
+        <v>95.175299999999993</v>
+      </c>
+      <c r="B681">
+        <v>81.578800000000001</v>
+      </c>
+    </row>
+    <row r="682" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A682">
+        <v>101.974</v>
+      </c>
+      <c r="B682">
+        <v>67.982399999999998</v>
+      </c>
+    </row>
+    <row r="683" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A683">
+        <v>101.974</v>
+      </c>
+      <c r="B683">
+        <v>74.780600000000007</v>
+      </c>
+    </row>
+    <row r="684" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A684">
+        <v>101.974</v>
+      </c>
+      <c r="B684">
+        <v>81.578800000000001</v>
+      </c>
+    </row>
+    <row r="685" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A685">
+        <v>108.77200000000001</v>
+      </c>
+      <c r="B685">
+        <v>67.982399999999998</v>
+      </c>
+    </row>
+    <row r="686" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A686">
+        <v>108.77200000000001</v>
+      </c>
+      <c r="B686">
+        <v>74.780600000000007</v>
+      </c>
+    </row>
+    <row r="687" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A687">
+        <v>108.77200000000001</v>
+      </c>
+      <c r="B687">
+        <v>81.578800000000001</v>
+      </c>
+    </row>
+    <row r="688" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A688">
+        <v>129.166</v>
+      </c>
+      <c r="B688">
+        <v>95.175299999999993</v>
+      </c>
+    </row>
+    <row r="689" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A689">
+        <v>135.965</v>
+      </c>
+      <c r="B689">
+        <v>95.175299999999993</v>
+      </c>
+    </row>
+    <row r="690" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A690">
+        <v>142.76300000000001</v>
+      </c>
+      <c r="B690">
+        <v>95.175299999999993</v>
+      </c>
+    </row>
+    <row r="691" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A691">
+        <v>149.56100000000001</v>
+      </c>
+      <c r="B691">
+        <v>95.175299999999993</v>
+      </c>
+    </row>
+    <row r="693" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A693" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="694" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A694">
+        <v>101.974</v>
+      </c>
+      <c r="B694">
+        <v>33.991199999999999</v>
+      </c>
+      <c r="C694">
+        <v>190.58199999999999</v>
+      </c>
+    </row>
+    <row r="695" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A695">
+        <v>101.974</v>
+      </c>
+      <c r="B695">
+        <v>47.587699999999998</v>
+      </c>
+      <c r="C695">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="696" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A696">
+        <v>95.175299999999993</v>
+      </c>
+      <c r="B696">
+        <v>54.385899999999999</v>
+      </c>
+      <c r="C696">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="698" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A698" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="699" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A699">
+        <v>101.974</v>
+      </c>
+      <c r="B699">
+        <v>33.991199999999999</v>
+      </c>
+    </row>
+    <row r="700" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A700">
+        <v>101.974</v>
+      </c>
+      <c r="B700">
+        <v>40.789400000000001</v>
+      </c>
+    </row>
+    <row r="701" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A701">
+        <v>101.974</v>
+      </c>
+      <c r="B701">
+        <v>47.587699999999998</v>
+      </c>
+    </row>
+    <row r="702" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A702">
+        <v>95.175299999999993</v>
+      </c>
+      <c r="B702">
+        <v>54.385899999999999</v>
+      </c>
+    </row>
+    <row r="704" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A704" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="705" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A705">
+        <v>99.868899999999996</v>
+      </c>
+      <c r="B705">
+        <v>34.464300000000001</v>
+      </c>
+    </row>
+    <row r="706" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A706">
+        <v>100.471</v>
+      </c>
+      <c r="B706">
+        <v>36.853400000000001</v>
+      </c>
+    </row>
+    <row r="707" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A707">
+        <v>102.126</v>
+      </c>
+      <c r="B707">
+        <v>40.365499999999997</v>
+      </c>
+    </row>
+    <row r="708" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A708">
+        <v>103.178</v>
+      </c>
+      <c r="B708">
+        <v>44.207799999999999</v>
+      </c>
+    </row>
+    <row r="709" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A709">
+        <v>101.974</v>
+      </c>
+      <c r="B709">
+        <v>47.587699999999998</v>
+      </c>
+    </row>
+    <row r="710" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A710">
+        <v>99.961299999999994</v>
+      </c>
+      <c r="B710">
+        <v>49.138500000000001</v>
+      </c>
+    </row>
+    <row r="711" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A711">
+        <v>98.112099999999998</v>
+      </c>
+      <c r="B711">
+        <v>50.064599999999999</v>
+      </c>
+    </row>
+    <row r="712" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A712">
+        <v>96.589299999999994</v>
+      </c>
+      <c r="B712">
+        <v>50.895200000000003</v>
+      </c>
+    </row>
+    <row r="713" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A713">
+        <v>95.555999999999997</v>
+      </c>
+      <c r="B713">
+        <v>52.159300000000002</v>
+      </c>
+    </row>
+    <row r="714" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A714">
+        <v>95.175299999999993</v>
+      </c>
+      <c r="B714">
+        <v>54.385899999999999</v>
+      </c>
+    </row>
+    <row r="716" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A716" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="717" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A717" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="718" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A718">
+        <v>100.702</v>
+      </c>
+      <c r="B718">
+        <v>72.123500000000007</v>
+      </c>
+    </row>
+    <row r="719" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A719">
+        <v>100.702</v>
+      </c>
+      <c r="B719">
+        <v>80.923500000000004</v>
+      </c>
+    </row>
+    <row r="720" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A720">
+        <v>100.702</v>
+      </c>
+      <c r="B720">
+        <v>88.523499999999999</v>
+      </c>
+    </row>
+    <row r="721" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A721">
+        <v>100.702</v>
+      </c>
+      <c r="B721">
+        <v>97.323499999999996</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B401"/>
   <sheetViews>
-    <sheetView tabSelected="1" showRuler="0" topLeftCell="A368" workbookViewId="0">
+    <sheetView showRuler="0" topLeftCell="A368" workbookViewId="0">
       <selection activeCell="Q391" sqref="Q391"/>
     </sheetView>
   </sheetViews>
